--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4377,28 +4377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1671.270021989306</v>
+        <v>1853.948098139315</v>
       </c>
       <c r="AB2" t="n">
-        <v>2286.70537531545</v>
+        <v>2536.653578291822</v>
       </c>
       <c r="AC2" t="n">
-        <v>2068.465423706494</v>
+        <v>2294.558920995307</v>
       </c>
       <c r="AD2" t="n">
-        <v>1671270.021989306</v>
+        <v>1853948.098139315</v>
       </c>
       <c r="AE2" t="n">
-        <v>2286705.37531545</v>
+        <v>2536653.578291822</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.342637857873532e-07</v>
+        <v>9.885278816747701e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.44401041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2068465.423706494</v>
+        <v>2294558.920995307</v>
       </c>
     </row>
     <row r="3">
@@ -4483,28 +4483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1159.525904556408</v>
+        <v>1305.702430211403</v>
       </c>
       <c r="AB3" t="n">
-        <v>1586.514497286671</v>
+        <v>1786.51966854101</v>
       </c>
       <c r="AC3" t="n">
-        <v>1435.099780352713</v>
+        <v>1616.016738771558</v>
       </c>
       <c r="AD3" t="n">
-        <v>1159525.904556408</v>
+        <v>1305702.430211403</v>
       </c>
       <c r="AE3" t="n">
-        <v>1586514.497286671</v>
+        <v>1786519.66854101</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.911187222411525e-07</v>
+        <v>1.278750580999968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.98567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1435099.780352713</v>
+        <v>1616016.738771558</v>
       </c>
     </row>
     <row r="4">
@@ -4589,28 +4589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1034.704363046612</v>
+        <v>1156.575117837373</v>
       </c>
       <c r="AB4" t="n">
-        <v>1415.728157455203</v>
+        <v>1582.477100718165</v>
       </c>
       <c r="AC4" t="n">
-        <v>1280.613049094626</v>
+        <v>1431.447707246183</v>
       </c>
       <c r="AD4" t="n">
-        <v>1034704.363046612</v>
+        <v>1156575.117837373</v>
       </c>
       <c r="AE4" t="n">
-        <v>1415728.157455203</v>
+        <v>1582477.100718165</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.537673307890688e-07</v>
+        <v>1.394666909123306e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.16276041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1280613.049094626</v>
+        <v>1431447.707246183</v>
       </c>
     </row>
     <row r="5">
@@ -4695,28 +4695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>968.1863871459252</v>
+        <v>1089.971801082115</v>
       </c>
       <c r="AB5" t="n">
-        <v>1324.715328261898</v>
+        <v>1491.347504402663</v>
       </c>
       <c r="AC5" t="n">
-        <v>1198.286356582222</v>
+        <v>1349.01539170184</v>
       </c>
       <c r="AD5" t="n">
-        <v>968186.3871459252</v>
+        <v>1089971.801082115</v>
       </c>
       <c r="AE5" t="n">
-        <v>1324715.328261898</v>
+        <v>1491347.504402663</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.87845933054329e-07</v>
+        <v>1.45772124558384e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.29036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1198286.356582223</v>
+        <v>1349015.39170184</v>
       </c>
     </row>
     <row r="6">
@@ -4801,28 +4801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>921.110543996404</v>
+        <v>1042.981209278614</v>
       </c>
       <c r="AB6" t="n">
-        <v>1260.304082825099</v>
+        <v>1427.052903618513</v>
       </c>
       <c r="AC6" t="n">
-        <v>1140.022430008161</v>
+        <v>1290.856977378491</v>
       </c>
       <c r="AD6" t="n">
-        <v>921110.5439964039</v>
+        <v>1042981.209278614</v>
       </c>
       <c r="AE6" t="n">
-        <v>1260304.082825099</v>
+        <v>1427052.903618513</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.092267547495193e-07</v>
+        <v>1.497281363527572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1140022.430008161</v>
+        <v>1290856.977378491</v>
       </c>
     </row>
     <row r="7">
@@ -4907,28 +4907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>897.5274245295301</v>
+        <v>1007.202578706613</v>
       </c>
       <c r="AB7" t="n">
-        <v>1228.03661835672</v>
+        <v>1378.099002828121</v>
       </c>
       <c r="AC7" t="n">
-        <v>1110.834527060973</v>
+        <v>1246.575168172303</v>
       </c>
       <c r="AD7" t="n">
-        <v>897527.4245295301</v>
+        <v>1007202.578706613</v>
       </c>
       <c r="AE7" t="n">
-        <v>1228036.61835672</v>
+        <v>1378099.002828121</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.226714635884165e-07</v>
+        <v>1.522157594898304e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.47005208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1110834.527060973</v>
+        <v>1246575.168172303</v>
       </c>
     </row>
     <row r="8">
@@ -5013,28 +5013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>877.5944655829046</v>
+        <v>987.2696197599877</v>
       </c>
       <c r="AB8" t="n">
-        <v>1200.763464545862</v>
+        <v>1350.825849017263</v>
       </c>
       <c r="AC8" t="n">
-        <v>1086.164284771712</v>
+        <v>1221.904925883041</v>
       </c>
       <c r="AD8" t="n">
-        <v>877594.4655829046</v>
+        <v>987269.6197599877</v>
       </c>
       <c r="AE8" t="n">
-        <v>1200763.464545862</v>
+        <v>1350825.849017263</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.332685084024082e-07</v>
+        <v>1.541764902263429e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.23567708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1086164.284771712</v>
+        <v>1221904.925883041</v>
       </c>
     </row>
     <row r="9">
@@ -5119,28 +5119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>859.8688791394192</v>
+        <v>969.5440333165021</v>
       </c>
       <c r="AB9" t="n">
-        <v>1176.510535176202</v>
+        <v>1326.572919647603</v>
       </c>
       <c r="AC9" t="n">
-        <v>1064.226020941892</v>
+        <v>1199.966662053222</v>
       </c>
       <c r="AD9" t="n">
-        <v>859868.8791394192</v>
+        <v>969544.0333165021</v>
       </c>
       <c r="AE9" t="n">
-        <v>1176510.535176202</v>
+        <v>1326572.919647603</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.421149400863353e-07</v>
+        <v>1.558133117002156e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1064226.020941892</v>
+        <v>1199966.662053222</v>
       </c>
     </row>
     <row r="10">
@@ -5225,28 +5225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>835.1548467849677</v>
+        <v>956.9401712126062</v>
       </c>
       <c r="AB10" t="n">
-        <v>1142.695705802684</v>
+        <v>1309.3277594739</v>
       </c>
       <c r="AC10" t="n">
-        <v>1033.638431424371</v>
+        <v>1184.367355762763</v>
       </c>
       <c r="AD10" t="n">
-        <v>835154.8467849677</v>
+        <v>956940.1712126061</v>
       </c>
       <c r="AE10" t="n">
-        <v>1142695.705802684</v>
+        <v>1309327.7594739</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.472267304261244e-07</v>
+        <v>1.567591267471237e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.93619791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1033638.431424371</v>
+        <v>1184367.355762763</v>
       </c>
     </row>
     <row r="11">
@@ -5331,28 +5331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>820.7334984110314</v>
+        <v>930.493903934135</v>
       </c>
       <c r="AB11" t="n">
-        <v>1122.963780732477</v>
+        <v>1273.142809856527</v>
       </c>
       <c r="AC11" t="n">
-        <v>1015.789693588933</v>
+        <v>1151.635846950976</v>
       </c>
       <c r="AD11" t="n">
-        <v>820733.4984110314</v>
+        <v>930493.903934135</v>
       </c>
       <c r="AE11" t="n">
-        <v>1122963.780732477</v>
+        <v>1273142.809856527</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.533188641187495e-07</v>
+        <v>1.578863309811099e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1015789.693588933</v>
+        <v>1151635.846950976</v>
       </c>
     </row>
     <row r="12">
@@ -5437,28 +5437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>808.2539330196487</v>
+        <v>918.0143385427523</v>
       </c>
       <c r="AB12" t="n">
-        <v>1105.888688804419</v>
+        <v>1256.067717928469</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000.344224469447</v>
+        <v>1136.190377831489</v>
       </c>
       <c r="AD12" t="n">
-        <v>808253.9330196487</v>
+        <v>918014.3385427523</v>
       </c>
       <c r="AE12" t="n">
-        <v>1105888.688804419</v>
+        <v>1256067.717928469</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.571001884796894e-07</v>
+        <v>1.585859749884117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000344.224469447</v>
+        <v>1136190.377831489</v>
       </c>
     </row>
     <row r="13">
@@ -5543,28 +5543,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>788.6717540236419</v>
+        <v>898.4321595467455</v>
       </c>
       <c r="AB13" t="n">
-        <v>1079.095487597316</v>
+        <v>1229.274516721366</v>
       </c>
       <c r="AC13" t="n">
-        <v>976.1081287810565</v>
+        <v>1111.954282143099</v>
       </c>
       <c r="AD13" t="n">
-        <v>788671.7540236419</v>
+        <v>898432.1595467456</v>
       </c>
       <c r="AE13" t="n">
-        <v>1079095.487597316</v>
+        <v>1229274.516721366</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.607648052986249e-07</v>
+        <v>1.592640250448709e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.65625</v>
       </c>
       <c r="AH13" t="n">
-        <v>976108.1287810565</v>
+        <v>1111954.282143099</v>
       </c>
     </row>
     <row r="14">
@@ -5649,28 +5649,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>779.764234360233</v>
+        <v>889.5246398833366</v>
       </c>
       <c r="AB14" t="n">
-        <v>1066.907826221807</v>
+        <v>1217.086855345857</v>
       </c>
       <c r="AC14" t="n">
-        <v>965.0836407017358</v>
+        <v>1100.929794063778</v>
       </c>
       <c r="AD14" t="n">
-        <v>779764.2343602329</v>
+        <v>889524.6398833366</v>
       </c>
       <c r="AE14" t="n">
-        <v>1066907.826221807</v>
+        <v>1217086.855345857</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.63799201390737e-07</v>
+        <v>1.598254677667797e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.59114583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>965083.6407017359</v>
+        <v>1100929.794063778</v>
       </c>
     </row>
     <row r="15">
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>773.8711737708389</v>
+        <v>883.6315792939424</v>
       </c>
       <c r="AB15" t="n">
-        <v>1058.844680739913</v>
+        <v>1209.023709863964</v>
       </c>
       <c r="AC15" t="n">
-        <v>957.7900305079385</v>
+        <v>1093.63618386998</v>
       </c>
       <c r="AD15" t="n">
-        <v>773871.1737708389</v>
+        <v>883631.5792939424</v>
       </c>
       <c r="AE15" t="n">
-        <v>1058844.680739913</v>
+        <v>1209023.709863964</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.655731560292026e-07</v>
+        <v>1.60153695819588e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.55859375</v>
       </c>
       <c r="AH15" t="n">
-        <v>957790.0305079385</v>
+        <v>1093636.183869981</v>
       </c>
     </row>
     <row r="16">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>772.0938010523802</v>
+        <v>881.8542065754837</v>
       </c>
       <c r="AB16" t="n">
-        <v>1056.412800974368</v>
+        <v>1206.591830098418</v>
       </c>
       <c r="AC16" t="n">
-        <v>955.5902459340517</v>
+        <v>1091.436399296094</v>
       </c>
       <c r="AD16" t="n">
-        <v>772093.8010523801</v>
+        <v>881854.2065754837</v>
       </c>
       <c r="AE16" t="n">
-        <v>1056412.800974368</v>
+        <v>1206591.830098418</v>
       </c>
       <c r="AF16" t="n">
-        <v>8.652463749115906e-07</v>
+        <v>1.600932327572286e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>18</v>
+        <v>17.56510416666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>955590.2459340517</v>
+        <v>1091436.399296094</v>
       </c>
     </row>
     <row r="17">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>775.1342796111644</v>
+        <v>884.8946851342679</v>
       </c>
       <c r="AB17" t="n">
-        <v>1060.572917874944</v>
+        <v>1210.751946998994</v>
       </c>
       <c r="AC17" t="n">
-        <v>959.3533271163972</v>
+        <v>1095.199480478439</v>
       </c>
       <c r="AD17" t="n">
-        <v>775134.2796111644</v>
+        <v>884894.6851342679</v>
       </c>
       <c r="AE17" t="n">
-        <v>1060572.917874944</v>
+        <v>1210751.946998994</v>
       </c>
       <c r="AF17" t="n">
-        <v>8.650829843527844e-07</v>
+        <v>1.600630012260489e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>17.56510416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>959353.3271163972</v>
+        <v>1095199.480478439</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1318.417073534342</v>
+        <v>1471.174739059074</v>
       </c>
       <c r="AB2" t="n">
-        <v>1803.91640446593</v>
+        <v>2012.926181629443</v>
       </c>
       <c r="AC2" t="n">
-        <v>1631.753154636276</v>
+        <v>1820.815332014368</v>
       </c>
       <c r="AD2" t="n">
-        <v>1318417.073534342</v>
+        <v>1471174.739059074</v>
       </c>
       <c r="AE2" t="n">
-        <v>1803916.40446593</v>
+        <v>2012926.181629443</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.168214196543288e-07</v>
+        <v>1.17575682139037e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.48828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1631753.154636276</v>
+        <v>1820815.332014368</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>972.5289221684097</v>
+        <v>1101.844414773728</v>
       </c>
       <c r="AB3" t="n">
-        <v>1330.656976258786</v>
+        <v>1507.592138238277</v>
       </c>
       <c r="AC3" t="n">
-        <v>1203.660942033442</v>
+        <v>1363.70966048367</v>
       </c>
       <c r="AD3" t="n">
-        <v>972528.9221684097</v>
+        <v>1101844.414773728</v>
       </c>
       <c r="AE3" t="n">
-        <v>1330656.976258785</v>
+        <v>1507592.138238277</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.61989960463169e-07</v>
+        <v>1.452470464381128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.63151041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1203660.942033442</v>
+        <v>1363709.66048367</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>881.20025597491</v>
+        <v>998.6667851014901</v>
       </c>
       <c r="AB4" t="n">
-        <v>1205.697066036449</v>
+        <v>1366.419953444955</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.62703026039</v>
+        <v>1236.010750870618</v>
       </c>
       <c r="AD4" t="n">
-        <v>881200.25597491</v>
+        <v>998666.7851014901</v>
       </c>
       <c r="AE4" t="n">
-        <v>1205697.066036449</v>
+        <v>1366419.953444955</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.160538930764414e-07</v>
+        <v>1.555524663758424e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.26432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090627.03026039</v>
+        <v>1236010.750870618</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>828.8979424519584</v>
+        <v>946.4497229245592</v>
       </c>
       <c r="AB5" t="n">
-        <v>1134.134733259123</v>
+        <v>1294.974265320279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1025.894506084967</v>
+        <v>1171.383738945907</v>
       </c>
       <c r="AD5" t="n">
-        <v>828897.9424519584</v>
+        <v>946449.7229245591</v>
       </c>
       <c r="AE5" t="n">
-        <v>1134134.733259123</v>
+        <v>1294974.265320279</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.440396447060897e-07</v>
+        <v>1.60886982547271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1025894.506084967</v>
+        <v>1171383.738945907</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>798.9535486414652</v>
+        <v>904.7417064898999</v>
       </c>
       <c r="AB6" t="n">
-        <v>1093.163492594187</v>
+        <v>1237.907517206556</v>
       </c>
       <c r="AC6" t="n">
-        <v>988.8335031255949</v>
+        <v>1119.763361178474</v>
       </c>
       <c r="AD6" t="n">
-        <v>798953.5486414653</v>
+        <v>904741.7064898999</v>
       </c>
       <c r="AE6" t="n">
-        <v>1093163.492594187</v>
+        <v>1237907.517206556</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.634534016605653e-07</v>
+        <v>1.645875442399618e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.20963541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>988833.5031255949</v>
+        <v>1119763.361178474</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>765.28508770309</v>
+        <v>882.7515273211188</v>
       </c>
       <c r="AB7" t="n">
-        <v>1047.096818990635</v>
+        <v>1207.819583929594</v>
       </c>
       <c r="AC7" t="n">
-        <v>947.1633681957841</v>
+        <v>1092.546978024786</v>
       </c>
       <c r="AD7" t="n">
-        <v>765285.0877030899</v>
+        <v>882751.5273211189</v>
       </c>
       <c r="AE7" t="n">
-        <v>1047096.818990636</v>
+        <v>1207819.583929594</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.752368760309436e-07</v>
+        <v>1.668336563121423e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.96223958333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>947163.368195784</v>
+        <v>1092546.978024786</v>
       </c>
     </row>
     <row r="8">
@@ -6900,28 +6900,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>746.0497872714009</v>
+        <v>851.9231964658559</v>
       </c>
       <c r="AB8" t="n">
-        <v>1020.778232338435</v>
+        <v>1165.638901603453</v>
       </c>
       <c r="AC8" t="n">
-        <v>923.3565905153011</v>
+        <v>1054.391960818892</v>
       </c>
       <c r="AD8" t="n">
-        <v>746049.7872714009</v>
+        <v>851923.1964658559</v>
       </c>
       <c r="AE8" t="n">
-        <v>1020778.232338435</v>
+        <v>1165638.901603453</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.849437545081814e-07</v>
+        <v>1.686839371584877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.76692708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>923356.5905153011</v>
+        <v>1054391.960818892</v>
       </c>
     </row>
     <row r="9">
@@ -7006,28 +7006,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>728.1458179179256</v>
+        <v>834.0192271123808</v>
       </c>
       <c r="AB9" t="n">
-        <v>996.2812316016284</v>
+        <v>1141.141900866646</v>
       </c>
       <c r="AC9" t="n">
-        <v>901.1975491470589</v>
+        <v>1032.23291945065</v>
       </c>
       <c r="AD9" t="n">
-        <v>728145.8179179255</v>
+        <v>834019.2271123808</v>
       </c>
       <c r="AE9" t="n">
-        <v>996281.2316016284</v>
+        <v>1141141.900866646</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.917530573205722e-07</v>
+        <v>1.699818953641329e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>901197.5491470589</v>
+        <v>1032232.91945065</v>
       </c>
     </row>
     <row r="10">
@@ -7112,28 +7112,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>710.0813417099241</v>
+        <v>815.9547509043791</v>
       </c>
       <c r="AB10" t="n">
-        <v>971.5646183053963</v>
+        <v>1116.425287570414</v>
       </c>
       <c r="AC10" t="n">
-        <v>878.8398547338344</v>
+        <v>1009.875225037426</v>
       </c>
       <c r="AD10" t="n">
-        <v>710081.3417099242</v>
+        <v>815954.7509043792</v>
       </c>
       <c r="AE10" t="n">
-        <v>971564.6183053963</v>
+        <v>1116425.287570414</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.971618652282868e-07</v>
+        <v>1.710128976267731e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.51953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>878839.8547338344</v>
+        <v>1009875.225037426</v>
       </c>
     </row>
     <row r="11">
@@ -7218,28 +7218,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>700.9785600758208</v>
+        <v>806.681377069684</v>
       </c>
       <c r="AB11" t="n">
-        <v>959.1097908872332</v>
+        <v>1103.737048377405</v>
       </c>
       <c r="AC11" t="n">
-        <v>867.5736985640008</v>
+        <v>998.3979335849408</v>
       </c>
       <c r="AD11" t="n">
-        <v>700978.5600758209</v>
+        <v>806681.377069684</v>
       </c>
       <c r="AE11" t="n">
-        <v>959109.7908872332</v>
+        <v>1103737.048377404</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.99697243935028e-07</v>
+        <v>1.714961799373857e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>867573.6985640008</v>
+        <v>998397.9335849409</v>
       </c>
     </row>
     <row r="12">
@@ -7324,28 +7324,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>702.4772408281727</v>
+        <v>808.1800578220357</v>
       </c>
       <c r="AB12" t="n">
-        <v>961.1603520097295</v>
+        <v>1105.787609499901</v>
       </c>
       <c r="AC12" t="n">
-        <v>869.4285570109465</v>
+        <v>1000.252792031887</v>
       </c>
       <c r="AD12" t="n">
-        <v>702477.2408281728</v>
+        <v>808180.0578220356</v>
       </c>
       <c r="AE12" t="n">
-        <v>961160.3520097295</v>
+        <v>1105787.609499901</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.99528218687912e-07</v>
+        <v>1.714639611166782e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.47395833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>869428.5570109466</v>
+        <v>1000252.792031887</v>
       </c>
     </row>
   </sheetData>
@@ -7621,28 +7621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.0912589869337</v>
+        <v>796.6404325528219</v>
       </c>
       <c r="AB2" t="n">
-        <v>946.9497934573651</v>
+        <v>1089.998585114225</v>
       </c>
       <c r="AC2" t="n">
-        <v>856.5742342221757</v>
+        <v>985.9706499735455</v>
       </c>
       <c r="AD2" t="n">
-        <v>692091.2589869336</v>
+        <v>796640.4325528219</v>
       </c>
       <c r="AE2" t="n">
-        <v>946949.7934573651</v>
+        <v>1089998.585114225</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.739265668477515e-07</v>
+        <v>1.861234878238831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.07161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>856574.2342221758</v>
+        <v>985970.6499735455</v>
       </c>
     </row>
     <row r="3">
@@ -7727,28 +7727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>574.6952037091921</v>
+        <v>668.7809347838895</v>
       </c>
       <c r="AB3" t="n">
-        <v>786.3233314779264</v>
+        <v>915.0555795038356</v>
       </c>
       <c r="AC3" t="n">
-        <v>711.2777363333994</v>
+        <v>827.7239592845608</v>
       </c>
       <c r="AD3" t="n">
-        <v>574695.2037091921</v>
+        <v>668780.9347838896</v>
       </c>
       <c r="AE3" t="n">
-        <v>786323.3314779265</v>
+        <v>915055.5795038356</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.710864003625654e-07</v>
+        <v>2.068159896611861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.06640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>711277.7363333994</v>
+        <v>827723.9592845608</v>
       </c>
     </row>
     <row r="4">
@@ -7833,28 +7833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>527.6173388667743</v>
+        <v>621.7883212874922</v>
       </c>
       <c r="AB4" t="n">
-        <v>721.9093198717156</v>
+        <v>850.7582125502743</v>
       </c>
       <c r="AC4" t="n">
-        <v>653.0113075892523</v>
+        <v>769.5630427911258</v>
       </c>
       <c r="AD4" t="n">
-        <v>527617.3388667742</v>
+        <v>621788.3212874922</v>
       </c>
       <c r="AE4" t="n">
-        <v>721909.3198717156</v>
+        <v>850758.2125502742</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.993775332495745e-07</v>
+        <v>2.1284126057887e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>653011.3075892522</v>
+        <v>769563.0427911258</v>
       </c>
     </row>
     <row r="5">
@@ -7939,28 +7939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>529.0102717552951</v>
+        <v>623.181254176013</v>
       </c>
       <c r="AB5" t="n">
-        <v>723.815192101652</v>
+        <v>852.6640847802104</v>
       </c>
       <c r="AC5" t="n">
-        <v>654.7352860484719</v>
+        <v>771.2870212503457</v>
       </c>
       <c r="AD5" t="n">
-        <v>529010.2717552951</v>
+        <v>623181.2541760131</v>
       </c>
       <c r="AE5" t="n">
-        <v>723815.1921016519</v>
+        <v>852664.0847802104</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.992158696330775e-07</v>
+        <v>2.128068304593404e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>654735.2860484719</v>
+        <v>771287.0212503456</v>
       </c>
     </row>
   </sheetData>
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>879.6453534964488</v>
+        <v>1000.335110004653</v>
       </c>
       <c r="AB2" t="n">
-        <v>1203.569579867962</v>
+        <v>1368.702629178763</v>
       </c>
       <c r="AC2" t="n">
-        <v>1088.702588385878</v>
+        <v>1238.075571236146</v>
       </c>
       <c r="AD2" t="n">
-        <v>879645.3534964488</v>
+        <v>1000335.110004653</v>
       </c>
       <c r="AE2" t="n">
-        <v>1203569.579867962</v>
+        <v>1368702.629178763</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.729313899365089e-07</v>
+        <v>1.569317948425365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.71223958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1088702.588385878</v>
+        <v>1238075.571236146</v>
       </c>
     </row>
     <row r="3">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>706.8206797380927</v>
+        <v>816.4532993455246</v>
       </c>
       <c r="AB3" t="n">
-        <v>967.1032367452827</v>
+        <v>1117.107423541994</v>
       </c>
       <c r="AC3" t="n">
-        <v>874.80426116823</v>
+        <v>1010.492258909262</v>
       </c>
       <c r="AD3" t="n">
-        <v>706820.6797380927</v>
+        <v>816453.2993455245</v>
       </c>
       <c r="AE3" t="n">
-        <v>967103.2367452828</v>
+        <v>1117107.423541995</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.878426197216405e-07</v>
+        <v>1.802627473339667e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>874804.26116823</v>
+        <v>1010492.258909262</v>
       </c>
     </row>
     <row r="4">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>656.2980832721133</v>
+        <v>754.9589963418958</v>
       </c>
       <c r="AB4" t="n">
-        <v>897.9759913608816</v>
+        <v>1032.96820523525</v>
       </c>
       <c r="AC4" t="n">
-        <v>812.2744230626179</v>
+        <v>934.3831695075792</v>
       </c>
       <c r="AD4" t="n">
-        <v>656298.0832721133</v>
+        <v>754958.9963418959</v>
       </c>
       <c r="AE4" t="n">
-        <v>897975.9913608816</v>
+        <v>1032968.205235251</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.284920161709795e-07</v>
+        <v>1.885159801915229e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>812274.4230626179</v>
+        <v>934383.1695075792</v>
       </c>
     </row>
     <row r="5">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>612.398822331658</v>
+        <v>711.1449867474612</v>
       </c>
       <c r="AB5" t="n">
-        <v>837.9110858434432</v>
+        <v>973.0199443704614</v>
       </c>
       <c r="AC5" t="n">
-        <v>757.9420278261393</v>
+        <v>880.1562865218129</v>
       </c>
       <c r="AD5" t="n">
-        <v>612398.822331658</v>
+        <v>711144.9867474611</v>
       </c>
       <c r="AE5" t="n">
-        <v>837911.0858434432</v>
+        <v>973019.9443704614</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.509690445183627e-07</v>
+        <v>1.93079594048079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.64973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>757942.0278261394</v>
+        <v>880156.2865218129</v>
       </c>
     </row>
     <row r="6">
@@ -8660,28 +8660,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>591.4377238330686</v>
+        <v>690.0132960482796</v>
       </c>
       <c r="AB6" t="n">
-        <v>809.2311861392723</v>
+        <v>944.1066328914437</v>
       </c>
       <c r="AC6" t="n">
-        <v>731.9992974972424</v>
+        <v>854.002420910265</v>
       </c>
       <c r="AD6" t="n">
-        <v>591437.7238330686</v>
+        <v>690013.2960482796</v>
       </c>
       <c r="AE6" t="n">
-        <v>809231.1861392723</v>
+        <v>944106.6328914437</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.605836449467731e-07</v>
+        <v>1.950316903422252e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.46744791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>731999.2974972425</v>
+        <v>854002.4209102649</v>
       </c>
     </row>
     <row r="7">
@@ -8766,28 +8766,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>592.3201572027126</v>
+        <v>690.8957294179236</v>
       </c>
       <c r="AB7" t="n">
-        <v>810.438570405832</v>
+        <v>945.3140171580033</v>
       </c>
       <c r="AC7" t="n">
-        <v>733.0914507039762</v>
+        <v>855.0945741169986</v>
       </c>
       <c r="AD7" t="n">
-        <v>592320.1572027126</v>
+        <v>690895.7294179236</v>
       </c>
       <c r="AE7" t="n">
-        <v>810438.570405832</v>
+        <v>945314.0171580033</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.613053843891204e-07</v>
+        <v>1.951782284018394e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>733091.4507039762</v>
+        <v>855094.5741169986</v>
       </c>
     </row>
   </sheetData>
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>548.2216410878282</v>
+        <v>648.6011832031915</v>
       </c>
       <c r="AB2" t="n">
-        <v>750.1010351682216</v>
+        <v>887.4447531233167</v>
       </c>
       <c r="AC2" t="n">
-        <v>678.5124451451808</v>
+        <v>802.7482714217604</v>
       </c>
       <c r="AD2" t="n">
-        <v>548221.6410878282</v>
+        <v>648601.1832031915</v>
       </c>
       <c r="AE2" t="n">
-        <v>750101.0351682217</v>
+        <v>887444.7531233167</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.598635685231874e-07</v>
+        <v>2.137428682670028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.97786458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>678512.4451451808</v>
+        <v>802748.2714217603</v>
       </c>
     </row>
     <row r="3">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.7297131519992</v>
+        <v>567.1481078249406</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.2826253651583</v>
+        <v>775.9970619347215</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.0296870847213</v>
+        <v>701.9369914623878</v>
       </c>
       <c r="AD3" t="n">
-        <v>476729.7131519992</v>
+        <v>567148.1078249406</v>
       </c>
       <c r="AE3" t="n">
-        <v>652282.6253651583</v>
+        <v>775997.0619347215</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.027555763277206e-06</v>
+        <v>2.288165978474197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.72786458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>590029.6870847213</v>
+        <v>701936.9914623878</v>
       </c>
     </row>
     <row r="4">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.7240621817275</v>
+        <v>571.1424568546689</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.7478699258751</v>
+        <v>781.4623064954384</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.9733363750821</v>
+        <v>706.8806407527486</v>
       </c>
       <c r="AD4" t="n">
-        <v>480724.0621817275</v>
+        <v>571142.4568546689</v>
       </c>
       <c r="AE4" t="n">
-        <v>657747.8699258751</v>
+        <v>781462.3064954383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026576339210902e-06</v>
+        <v>2.285984992383603e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>594973.3363750821</v>
+        <v>706880.6407527486</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1403.063505230037</v>
+        <v>1557.382248142711</v>
       </c>
       <c r="AB2" t="n">
-        <v>1919.733386648991</v>
+        <v>2130.879098764559</v>
       </c>
       <c r="AC2" t="n">
-        <v>1736.516726589941</v>
+        <v>1927.510988286067</v>
       </c>
       <c r="AD2" t="n">
-        <v>1403063.505230037</v>
+        <v>1557382.248142711</v>
       </c>
       <c r="AE2" t="n">
-        <v>1919733.38664899</v>
+        <v>2130879.098764559</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.952716828489374e-07</v>
+        <v>1.125518070890742e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1736516.726589941</v>
+        <v>1927510.988286067</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1016.700935441523</v>
+        <v>1147.265128190462</v>
       </c>
       <c r="AB3" t="n">
-        <v>1391.095073550751</v>
+        <v>1569.738762155506</v>
       </c>
       <c r="AC3" t="n">
-        <v>1258.330912145264</v>
+        <v>1419.925097837574</v>
       </c>
       <c r="AD3" t="n">
-        <v>1016700.935441523</v>
+        <v>1147265.128190462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1391095.073550751</v>
+        <v>1569738.762155506</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.42558111854212e-07</v>
+        <v>1.40400189973511e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.98307291666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1258330.912145264</v>
+        <v>1419925.097837574</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>917.1092204877646</v>
+        <v>1035.710931563091</v>
       </c>
       <c r="AB4" t="n">
-        <v>1254.829295474644</v>
+        <v>1417.105388906118</v>
       </c>
       <c r="AC4" t="n">
-        <v>1135.070148678521</v>
+        <v>1281.858839508823</v>
       </c>
       <c r="AD4" t="n">
-        <v>917109.2204877646</v>
+        <v>1035710.931563091</v>
       </c>
       <c r="AE4" t="n">
-        <v>1254829.295474644</v>
+        <v>1417105.388906118</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.993429528013307e-07</v>
+        <v>1.511368613926448e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.4921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1135070.148678521</v>
+        <v>1281858.839508823</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>860.6726203195499</v>
+        <v>979.3595827408968</v>
       </c>
       <c r="AB5" t="n">
-        <v>1177.610249317415</v>
+        <v>1340.002987401539</v>
       </c>
       <c r="AC5" t="n">
-        <v>1065.220779908926</v>
+        <v>1212.11498298994</v>
       </c>
       <c r="AD5" t="n">
-        <v>860672.6203195499</v>
+        <v>979359.5827408968</v>
       </c>
       <c r="AE5" t="n">
-        <v>1177610.249317415</v>
+        <v>1340002.987401539</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.292788297608106e-07</v>
+        <v>1.567970282469796e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.7890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1065220.779908926</v>
+        <v>1212114.98298994</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>829.0551328795392</v>
+        <v>935.8649544818453</v>
       </c>
       <c r="AB6" t="n">
-        <v>1134.349808136891</v>
+        <v>1280.491718169931</v>
       </c>
       <c r="AC6" t="n">
-        <v>1026.089054518261</v>
+        <v>1158.283385769206</v>
       </c>
       <c r="AD6" t="n">
-        <v>829055.1328795392</v>
+        <v>935864.9544818453</v>
       </c>
       <c r="AE6" t="n">
-        <v>1134349.808136891</v>
+        <v>1280491.718169931</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.489728559299969e-07</v>
+        <v>1.605207031639401e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.35286458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1026089.054518261</v>
+        <v>1158283.385769206</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>807.1777631930439</v>
+        <v>913.98758479535</v>
       </c>
       <c r="AB7" t="n">
-        <v>1104.416225770396</v>
+        <v>1250.558135803436</v>
       </c>
       <c r="AC7" t="n">
-        <v>999.0122912407767</v>
+        <v>1131.206622491722</v>
       </c>
       <c r="AD7" t="n">
-        <v>807177.7631930439</v>
+        <v>913987.58479535</v>
       </c>
       <c r="AE7" t="n">
-        <v>1104416.225770396</v>
+        <v>1250558.135803435</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.615358738386515e-07</v>
+        <v>1.628960729469343e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.0859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>999012.2912407767</v>
+        <v>1131206.622491722</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>776.4853855381594</v>
+        <v>895.0870071049344</v>
       </c>
       <c r="AB8" t="n">
-        <v>1062.421560610845</v>
+        <v>1224.69753157277</v>
       </c>
       <c r="AC8" t="n">
-        <v>961.0255379841702</v>
+        <v>1107.814118033246</v>
       </c>
       <c r="AD8" t="n">
-        <v>776485.3855381594</v>
+        <v>895087.0071049344</v>
       </c>
       <c r="AE8" t="n">
-        <v>1062421.560610845</v>
+        <v>1224697.53157277</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.70605176290804e-07</v>
+        <v>1.646108637045624e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.89713541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>961025.5379841703</v>
+        <v>1107814.118033246</v>
       </c>
     </row>
     <row r="9">
@@ -10314,28 +10314,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>761.6472176417894</v>
+        <v>868.5422905901161</v>
       </c>
       <c r="AB9" t="n">
-        <v>1042.119324681265</v>
+        <v>1188.377879366953</v>
       </c>
       <c r="AC9" t="n">
-        <v>942.6609189573421</v>
+        <v>1074.960762459</v>
       </c>
       <c r="AD9" t="n">
-        <v>761647.2176417895</v>
+        <v>868542.2905901161</v>
       </c>
       <c r="AE9" t="n">
-        <v>1042119.324681264</v>
+        <v>1188377.879366953</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.770182978136982e-07</v>
+        <v>1.658234334223576e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.76692708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>942660.9189573422</v>
+        <v>1074960.762459</v>
       </c>
     </row>
     <row r="10">
@@ -10420,28 +10420,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>742.7133788952679</v>
+        <v>849.6084518435944</v>
       </c>
       <c r="AB10" t="n">
-        <v>1016.21321120626</v>
+        <v>1162.471765891949</v>
       </c>
       <c r="AC10" t="n">
-        <v>919.2272485929341</v>
+        <v>1051.527092094592</v>
       </c>
       <c r="AD10" t="n">
-        <v>742713.3788952678</v>
+        <v>849608.4518435943</v>
       </c>
       <c r="AE10" t="n">
-        <v>1016213.21120626</v>
+        <v>1162471.765891949</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.840535878425446e-07</v>
+        <v>1.671536405008344e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.62369791666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>919227.2485929341</v>
+        <v>1051527.092094592</v>
       </c>
     </row>
     <row r="11">
@@ -10526,28 +10526,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>726.6324783956591</v>
+        <v>833.5275513439855</v>
       </c>
       <c r="AB11" t="n">
-        <v>994.2106137034355</v>
+        <v>1140.469168389124</v>
       </c>
       <c r="AC11" t="n">
-        <v>899.3245481149389</v>
+        <v>1031.624391616597</v>
       </c>
       <c r="AD11" t="n">
-        <v>726632.478395659</v>
+        <v>833527.5513439855</v>
       </c>
       <c r="AE11" t="n">
-        <v>994210.6137034354</v>
+        <v>1140469.168389124</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.882173309208418e-07</v>
+        <v>1.679409059146267e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>899324.5481149389</v>
+        <v>1031624.391616597</v>
       </c>
     </row>
     <row r="12">
@@ -10632,28 +10632,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>716.7410463167158</v>
+        <v>823.4655270644503</v>
       </c>
       <c r="AB12" t="n">
-        <v>980.6767199538401</v>
+        <v>1126.701862864682</v>
       </c>
       <c r="AC12" t="n">
-        <v>887.082310189866</v>
+        <v>1019.171018408872</v>
       </c>
       <c r="AD12" t="n">
-        <v>716741.0463167158</v>
+        <v>823465.5270644503</v>
       </c>
       <c r="AE12" t="n">
-        <v>980676.7199538401</v>
+        <v>1126701.862864682</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.908017231763364e-07</v>
+        <v>1.684295534128427e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>887082.310189866</v>
+        <v>1019171.018408872</v>
       </c>
     </row>
     <row r="13">
@@ -10738,28 +10738,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>720.0627895742462</v>
+        <v>826.7872703219806</v>
       </c>
       <c r="AB13" t="n">
-        <v>985.2216756237631</v>
+        <v>1131.246818534605</v>
       </c>
       <c r="AC13" t="n">
-        <v>891.1935016695368</v>
+        <v>1023.282209888543</v>
       </c>
       <c r="AD13" t="n">
-        <v>720062.7895742462</v>
+        <v>826787.2703219806</v>
       </c>
       <c r="AE13" t="n">
-        <v>985221.6756237631</v>
+        <v>1131246.818534605</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.908735118501002e-07</v>
+        <v>1.684431269544598e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>891193.5016695368</v>
+        <v>1023282.209888543</v>
       </c>
     </row>
   </sheetData>
@@ -11035,28 +11035,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.2010556856193</v>
+        <v>568.3121052027877</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.0322693644816</v>
+        <v>777.5896944990322</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.3260317269165</v>
+        <v>703.3776254100345</v>
       </c>
       <c r="AD2" t="n">
-        <v>480201.0556856194</v>
+        <v>568312.1052027878</v>
       </c>
       <c r="AE2" t="n">
-        <v>657032.2693644817</v>
+        <v>777589.6944990322</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.012033002503367e-06</v>
+        <v>2.320153209604363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.42447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>594326.0317269166</v>
+        <v>703377.6254100346</v>
       </c>
     </row>
     <row r="3">
@@ -11141,28 +11141,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>450.0564421224427</v>
+        <v>547.8816502612871</v>
       </c>
       <c r="AB3" t="n">
-        <v>615.7870792008516</v>
+        <v>749.6358447200116</v>
       </c>
       <c r="AC3" t="n">
-        <v>557.0172246245153</v>
+        <v>678.091651820449</v>
       </c>
       <c r="AD3" t="n">
-        <v>450056.4421224426</v>
+        <v>547881.6502612871</v>
       </c>
       <c r="AE3" t="n">
-        <v>615787.0792008516</v>
+        <v>749635.8447200116</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.039067133473773e-06</v>
+        <v>2.382130759333176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>557017.2246245153</v>
+        <v>678091.651820449</v>
       </c>
     </row>
   </sheetData>
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1088.539155922036</v>
+        <v>1225.28264392192</v>
       </c>
       <c r="AB2" t="n">
-        <v>1489.387296090799</v>
+        <v>1676.485769069164</v>
       </c>
       <c r="AC2" t="n">
-        <v>1347.242262920091</v>
+        <v>1516.484320231757</v>
       </c>
       <c r="AD2" t="n">
-        <v>1088539.155922036</v>
+        <v>1225282.64392192</v>
       </c>
       <c r="AE2" t="n">
-        <v>1489387.296090799</v>
+        <v>1676485.769069164</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.89229534385062e-07</v>
+        <v>1.350880362287921e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.50260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1347242.262920091</v>
+        <v>1516484.320231757</v>
       </c>
     </row>
     <row r="3">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>839.4184142778895</v>
+        <v>953.3713209444596</v>
       </c>
       <c r="AB3" t="n">
-        <v>1148.529306941823</v>
+        <v>1304.44470109046</v>
       </c>
       <c r="AC3" t="n">
-        <v>1038.915281858301</v>
+        <v>1179.950329618023</v>
       </c>
       <c r="AD3" t="n">
-        <v>839418.4142778895</v>
+        <v>953371.3209444596</v>
       </c>
       <c r="AE3" t="n">
-        <v>1148529.306941823</v>
+        <v>1304444.70109046</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198905766385397e-07</v>
+        <v>1.606974199377733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.75260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1038915.281858301</v>
+        <v>1179950.329618023</v>
       </c>
     </row>
     <row r="4">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>765.3094230917856</v>
+        <v>879.1769889037837</v>
       </c>
       <c r="AB4" t="n">
-        <v>1047.130115743051</v>
+        <v>1202.928742769491</v>
       </c>
       <c r="AC4" t="n">
-        <v>947.1934871528808</v>
+        <v>1088.122911880664</v>
       </c>
       <c r="AD4" t="n">
-        <v>765309.4230917855</v>
+        <v>879176.9889037837</v>
       </c>
       <c r="AE4" t="n">
-        <v>1047130.115743051</v>
+        <v>1202928.74276949</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.687018799327749e-07</v>
+        <v>1.702643679265435e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>947193.4871528809</v>
+        <v>1088122.911880664</v>
       </c>
     </row>
     <row r="5">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>728.7708962025271</v>
+        <v>831.2432608564196</v>
       </c>
       <c r="AB5" t="n">
-        <v>997.1364912871278</v>
+        <v>1137.343701368253</v>
       </c>
       <c r="AC5" t="n">
-        <v>901.9711840485388</v>
+        <v>1028.797214781576</v>
       </c>
       <c r="AD5" t="n">
-        <v>728770.8962025271</v>
+        <v>831243.2608564196</v>
       </c>
       <c r="AE5" t="n">
-        <v>997136.4912871278</v>
+        <v>1137343.701368253</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.942768135650246e-07</v>
+        <v>1.752770195740745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.11197916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>901971.1840485388</v>
+        <v>1028797.214781576</v>
       </c>
     </row>
     <row r="6">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>690.7614485564684</v>
+        <v>793.3190645563814</v>
       </c>
       <c r="AB6" t="n">
-        <v>945.1302881593067</v>
+        <v>1085.454142893081</v>
       </c>
       <c r="AC6" t="n">
-        <v>854.9283799560725</v>
+        <v>981.8599229398221</v>
       </c>
       <c r="AD6" t="n">
-        <v>690761.4485564684</v>
+        <v>793319.0645563813</v>
       </c>
       <c r="AE6" t="n">
-        <v>945130.2881593067</v>
+        <v>1085454.142893081</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.097760194530513e-07</v>
+        <v>1.783148425083272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.80598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>854928.3799560725</v>
+        <v>981859.9229398221</v>
       </c>
     </row>
     <row r="7">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>668.6052276319795</v>
+        <v>771.1628436318924</v>
       </c>
       <c r="AB7" t="n">
-        <v>914.8151692269399</v>
+        <v>1055.139023960714</v>
       </c>
       <c r="AC7" t="n">
-        <v>827.5064934270739</v>
+        <v>954.4380364108234</v>
       </c>
       <c r="AD7" t="n">
-        <v>668605.2276319795</v>
+        <v>771162.8436318925</v>
       </c>
       <c r="AE7" t="n">
-        <v>914815.1692269399</v>
+        <v>1055139.023960714</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.210956642027338e-07</v>
+        <v>1.805334772355904e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.58463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>827506.4934270739</v>
+        <v>954438.0364108235</v>
       </c>
     </row>
     <row r="8">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.4247263119756</v>
+        <v>750.8117501112964</v>
       </c>
       <c r="AB8" t="n">
-        <v>887.2033170200267</v>
+        <v>1027.293759978954</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.5298776413107</v>
+        <v>929.2502853424091</v>
       </c>
       <c r="AD8" t="n">
-        <v>648424.7263119756</v>
+        <v>750811.7501112964</v>
       </c>
       <c r="AE8" t="n">
-        <v>887203.3170200267</v>
+        <v>1027293.759978954</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.27215735869595e-07</v>
+        <v>1.817330028243965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.46744791666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>802529.8776413107</v>
+        <v>929250.2853424092</v>
       </c>
     </row>
     <row r="9">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>649.0617811110612</v>
+        <v>751.448804910382</v>
       </c>
       <c r="AB9" t="n">
-        <v>888.0749635010098</v>
+        <v>1028.165406459937</v>
       </c>
       <c r="AC9" t="n">
-        <v>803.3183354055121</v>
+        <v>930.0387431066108</v>
       </c>
       <c r="AD9" t="n">
-        <v>649061.7811110612</v>
+        <v>751448.804910382</v>
       </c>
       <c r="AE9" t="n">
-        <v>888074.9635010099</v>
+        <v>1028165.406459937</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.28086477773417e-07</v>
+        <v>1.81903667034186e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>803318.3354055121</v>
+        <v>930038.7431066108</v>
       </c>
     </row>
     <row r="10">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>651.2818265369257</v>
+        <v>753.6688503362464</v>
       </c>
       <c r="AB10" t="n">
-        <v>891.1125275941691</v>
+        <v>1031.202970553096</v>
       </c>
       <c r="AC10" t="n">
-        <v>806.0659986448685</v>
+        <v>932.7864063459671</v>
       </c>
       <c r="AD10" t="n">
-        <v>651281.8265369256</v>
+        <v>753668.8503362463</v>
       </c>
       <c r="AE10" t="n">
-        <v>891112.5275941691</v>
+        <v>1031202.970553096</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.28111356113526e-07</v>
+        <v>1.819085431544657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>806065.9986448685</v>
+        <v>932786.4063459671</v>
       </c>
     </row>
   </sheetData>
@@ -12583,28 +12583,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1234.353439149481</v>
+        <v>1385.664502752968</v>
       </c>
       <c r="AB2" t="n">
-        <v>1688.896831274755</v>
+        <v>1895.927303870049</v>
       </c>
       <c r="AC2" t="n">
-        <v>1527.710888079482</v>
+        <v>1714.982662939375</v>
       </c>
       <c r="AD2" t="n">
-        <v>1234353.439149481</v>
+        <v>1385664.502752969</v>
       </c>
       <c r="AE2" t="n">
-        <v>1688896.831274755</v>
+        <v>1895927.303870049</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.400114462500015e-07</v>
+        <v>1.230551979732373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1527710.888079482</v>
+        <v>1714982.662939375</v>
       </c>
     </row>
     <row r="3">
@@ -12689,28 +12689,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>933.303690498341</v>
+        <v>1049.677211812366</v>
       </c>
       <c r="AB3" t="n">
-        <v>1276.987283792708</v>
+        <v>1436.214669691976</v>
       </c>
       <c r="AC3" t="n">
-        <v>1155.113409690441</v>
+        <v>1299.144357356522</v>
       </c>
       <c r="AD3" t="n">
-        <v>933303.690498341</v>
+        <v>1049677.211812366</v>
       </c>
       <c r="AE3" t="n">
-        <v>1276987.283792709</v>
+        <v>1436214.669691976</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.793923667884502e-07</v>
+        <v>1.498540105117417e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1155113.409690441</v>
+        <v>1299144.357356522</v>
       </c>
     </row>
     <row r="4">
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>847.2860376970766</v>
+        <v>952.099022599669</v>
       </c>
       <c r="AB4" t="n">
-        <v>1159.294136399003</v>
+        <v>1302.703886365276</v>
       </c>
       <c r="AC4" t="n">
-        <v>1048.652731100621</v>
+        <v>1178.375655806962</v>
       </c>
       <c r="AD4" t="n">
-        <v>847286.0376970766</v>
+        <v>952099.0225996689</v>
       </c>
       <c r="AE4" t="n">
-        <v>1159294.136399003</v>
+        <v>1302703.886365276</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.323610167237507e-07</v>
+        <v>1.600383091557028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.06901041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1048652.731100621</v>
+        <v>1178375.655806961</v>
       </c>
     </row>
     <row r="5">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>795.6549209219005</v>
+        <v>900.3825649699212</v>
       </c>
       <c r="AB5" t="n">
-        <v>1088.650164623094</v>
+        <v>1231.94314746717</v>
       </c>
       <c r="AC5" t="n">
-        <v>984.7509208415676</v>
+        <v>1114.368222515969</v>
       </c>
       <c r="AD5" t="n">
-        <v>795654.9209219005</v>
+        <v>900382.5649699211</v>
       </c>
       <c r="AE5" t="n">
-        <v>1088650.164623094</v>
+        <v>1231943.14746717</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.607588433112452e-07</v>
+        <v>1.654983680237262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH5" t="n">
-        <v>984750.9208415676</v>
+        <v>1114368.222515969</v>
       </c>
     </row>
     <row r="6">
@@ -13007,28 +13007,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>766.8461733738366</v>
+        <v>871.5738174218573</v>
       </c>
       <c r="AB6" t="n">
-        <v>1049.23276527559</v>
+        <v>1192.525748119666</v>
       </c>
       <c r="AC6" t="n">
-        <v>949.0954627651222</v>
+        <v>1078.712764439524</v>
       </c>
       <c r="AD6" t="n">
-        <v>766846.1733738366</v>
+        <v>871573.8174218573</v>
       </c>
       <c r="AE6" t="n">
-        <v>1049232.76527559</v>
+        <v>1192525.748119666</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.787481961194604e-07</v>
+        <v>1.689571864311093e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.05989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>949095.4627651222</v>
+        <v>1078712.764439524</v>
       </c>
     </row>
     <row r="7">
@@ -13113,28 +13113,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>733.1597354162063</v>
+        <v>849.4478263671089</v>
       </c>
       <c r="AB7" t="n">
-        <v>1003.141494721204</v>
+        <v>1162.251991028726</v>
       </c>
       <c r="AC7" t="n">
-        <v>907.4030783829426</v>
+        <v>1051.328292235858</v>
       </c>
       <c r="AD7" t="n">
-        <v>733159.7354162063</v>
+        <v>849447.8263671088</v>
       </c>
       <c r="AE7" t="n">
-        <v>1003141.494721205</v>
+        <v>1162251.991028726</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.896929378686322e-07</v>
+        <v>1.710615352995578e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.83854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>907403.0783829426</v>
+        <v>1051328.292235858</v>
       </c>
     </row>
     <row r="8">
@@ -13219,28 +13219,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>715.121302000103</v>
+        <v>819.934197394144</v>
       </c>
       <c r="AB8" t="n">
-        <v>978.4605143217743</v>
+        <v>1121.870141818499</v>
       </c>
       <c r="AC8" t="n">
-        <v>885.0776161128604</v>
+        <v>1014.800430037974</v>
       </c>
       <c r="AD8" t="n">
-        <v>715121.3020001031</v>
+        <v>819934.197394144</v>
       </c>
       <c r="AE8" t="n">
-        <v>978460.5143217744</v>
+        <v>1121870.141818499</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.977125816002078e-07</v>
+        <v>1.726034746708708e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>885077.6161128604</v>
+        <v>1014800.430037974</v>
       </c>
     </row>
     <row r="9">
@@ -13325,28 +13325,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>697.2646342884708</v>
+        <v>802.077529682512</v>
       </c>
       <c r="AB9" t="n">
-        <v>954.0282337781388</v>
+        <v>1097.437861274864</v>
       </c>
       <c r="AC9" t="n">
-        <v>862.9771181333882</v>
+        <v>992.6999320585021</v>
       </c>
       <c r="AD9" t="n">
-        <v>697264.6342884708</v>
+        <v>802077.529682512</v>
       </c>
       <c r="AE9" t="n">
-        <v>954028.2337781388</v>
+        <v>1097437.861274864</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.050253266441978e-07</v>
+        <v>1.740094984137094e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>862977.1181333882</v>
+        <v>992699.9320585021</v>
       </c>
     </row>
     <row r="10">
@@ -13431,28 +13431,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>683.5770284933579</v>
+        <v>788.2193316868069</v>
       </c>
       <c r="AB10" t="n">
-        <v>935.3002476747154</v>
+        <v>1078.476463396594</v>
       </c>
       <c r="AC10" t="n">
-        <v>846.0365047387819</v>
+        <v>975.5481833812451</v>
       </c>
       <c r="AD10" t="n">
-        <v>683577.0284933579</v>
+        <v>788219.3316868069</v>
       </c>
       <c r="AE10" t="n">
-        <v>935300.2476747154</v>
+        <v>1078476.463396593</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.091204638688322e-07</v>
+        <v>1.747968717096991e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>846036.504738782</v>
+        <v>975548.183381245</v>
       </c>
     </row>
     <row r="11">
@@ -13537,28 +13537,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>684.8426090165167</v>
+        <v>789.4849122099657</v>
       </c>
       <c r="AB11" t="n">
-        <v>937.0318707799736</v>
+        <v>1080.208086501852</v>
       </c>
       <c r="AC11" t="n">
-        <v>847.6028641652225</v>
+        <v>977.1145428076854</v>
       </c>
       <c r="AD11" t="n">
-        <v>684842.6090165167</v>
+        <v>789484.9122099658</v>
       </c>
       <c r="AE11" t="n">
-        <v>937031.8707799736</v>
+        <v>1080208.086501852</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.090717122352056e-07</v>
+        <v>1.747874982180801e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.45442708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>847602.8641652225</v>
+        <v>977114.5428076854</v>
       </c>
     </row>
   </sheetData>
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1575.182907690297</v>
+        <v>1744.482883841471</v>
       </c>
       <c r="AB2" t="n">
-        <v>2155.234746467241</v>
+        <v>2386.87844282509</v>
       </c>
       <c r="AC2" t="n">
-        <v>1949.542167155372</v>
+        <v>2159.078114246797</v>
       </c>
       <c r="AD2" t="n">
-        <v>1575182.907690297</v>
+        <v>1744482.883841471</v>
       </c>
       <c r="AE2" t="n">
-        <v>2155234.746467241</v>
+        <v>2386878.44282509</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.534985820544133e-07</v>
+        <v>1.031125877479104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.67578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1949542.167155372</v>
+        <v>2159078.114246797</v>
       </c>
     </row>
     <row r="3">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1114.767409238847</v>
+        <v>1247.788819071912</v>
       </c>
       <c r="AB3" t="n">
-        <v>1525.273949387731</v>
+        <v>1707.279710811755</v>
       </c>
       <c r="AC3" t="n">
-        <v>1379.703944393598</v>
+        <v>1544.339331394004</v>
       </c>
       <c r="AD3" t="n">
-        <v>1114767.409238847</v>
+        <v>1247788.819071912</v>
       </c>
       <c r="AE3" t="n">
-        <v>1525273.949387731</v>
+        <v>1707279.710811755</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.079840949032669e-07</v>
+        <v>1.318920670742772e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.63411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1379703.944393598</v>
+        <v>1544339.331394004</v>
       </c>
     </row>
     <row r="4">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>987.4759897757726</v>
+        <v>1120.326717899694</v>
       </c>
       <c r="AB4" t="n">
-        <v>1351.108213577263</v>
+        <v>1532.880440756891</v>
       </c>
       <c r="AC4" t="n">
-        <v>1222.160341965736</v>
+        <v>1386.584482902264</v>
       </c>
       <c r="AD4" t="n">
-        <v>987475.9897757727</v>
+        <v>1120326.717899694</v>
       </c>
       <c r="AE4" t="n">
-        <v>1351108.213577263</v>
+        <v>1532880.440756891</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.682630903219025e-07</v>
+        <v>1.431215867261431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.94140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1222160.341965736</v>
+        <v>1386584.482902264</v>
       </c>
     </row>
     <row r="5">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>935.3771012329593</v>
+        <v>1044.212889695836</v>
       </c>
       <c r="AB5" t="n">
-        <v>1279.824215832239</v>
+        <v>1428.738143103262</v>
       </c>
       <c r="AC5" t="n">
-        <v>1157.679588917778</v>
+        <v>1292.381379972064</v>
       </c>
       <c r="AD5" t="n">
-        <v>935377.1012329593</v>
+        <v>1044212.889695836</v>
       </c>
       <c r="AE5" t="n">
-        <v>1279824.215832239</v>
+        <v>1428738.143103261</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.017435784096149e-07</v>
+        <v>1.493587477193536e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.10807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1157679.588917778</v>
+        <v>1292381.379972063</v>
       </c>
     </row>
     <row r="6">
@@ -14258,28 +14258,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>891.3244786365635</v>
+        <v>1012.167692175688</v>
       </c>
       <c r="AB6" t="n">
-        <v>1219.549474131304</v>
+        <v>1384.892490121856</v>
       </c>
       <c r="AC6" t="n">
-        <v>1103.157383968649</v>
+        <v>1252.720294573443</v>
       </c>
       <c r="AD6" t="n">
-        <v>891324.4786365635</v>
+        <v>1012167.692175688</v>
       </c>
       <c r="AE6" t="n">
-        <v>1219549.474131304</v>
+        <v>1384892.490121856</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.208248685284726e-07</v>
+        <v>1.529134473437342e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.65885416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1103157.383968649</v>
+        <v>1252720.294573443</v>
       </c>
     </row>
     <row r="7">
@@ -14364,28 +14364,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>867.8508695169429</v>
+        <v>976.6013171252482</v>
       </c>
       <c r="AB7" t="n">
-        <v>1187.431846551293</v>
+        <v>1336.229006700117</v>
       </c>
       <c r="AC7" t="n">
-        <v>1074.1050176875</v>
+        <v>1208.701185709847</v>
       </c>
       <c r="AD7" t="n">
-        <v>867850.8695169429</v>
+        <v>976601.3171252483</v>
       </c>
       <c r="AE7" t="n">
-        <v>1187431.846551293</v>
+        <v>1336229.006700117</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.356005161174277e-07</v>
+        <v>1.556660384215531e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1074105.0176875</v>
+        <v>1208701.185709847</v>
       </c>
     </row>
     <row r="8">
@@ -14470,28 +14470,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>847.1164204583213</v>
+        <v>955.8668680666266</v>
       </c>
       <c r="AB8" t="n">
-        <v>1159.062058609953</v>
+        <v>1307.859218758778</v>
       </c>
       <c r="AC8" t="n">
-        <v>1048.442802490035</v>
+        <v>1183.038970512382</v>
       </c>
       <c r="AD8" t="n">
-        <v>847116.4204583212</v>
+        <v>955866.8680666266</v>
       </c>
       <c r="AE8" t="n">
-        <v>1159062.058609953</v>
+        <v>1307859.218758778</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.463293302902997e-07</v>
+        <v>1.5766473512774e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1048442.802490035</v>
+        <v>1183038.970512382</v>
       </c>
     </row>
     <row r="9">
@@ -14576,28 +14576,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>819.3455214380399</v>
+        <v>940.1033941225921</v>
       </c>
       <c r="AB9" t="n">
-        <v>1121.064689404807</v>
+        <v>1286.290938273161</v>
       </c>
       <c r="AC9" t="n">
-        <v>1014.071848872186</v>
+        <v>1163.52913644504</v>
       </c>
       <c r="AD9" t="n">
-        <v>819345.5214380398</v>
+        <v>940103.3941225922</v>
       </c>
       <c r="AE9" t="n">
-        <v>1121064.689404808</v>
+        <v>1286290.938273161</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.535759854772395e-07</v>
+        <v>1.590147320257785e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.94270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1014071.848872186</v>
+        <v>1163529.13644504</v>
       </c>
     </row>
     <row r="10">
@@ -14682,28 +14682,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>803.1461677730698</v>
+        <v>923.9040404576219</v>
       </c>
       <c r="AB10" t="n">
-        <v>1098.90001905535</v>
+        <v>1264.126267923704</v>
       </c>
       <c r="AC10" t="n">
-        <v>994.0225435525701</v>
+        <v>1143.479831125425</v>
       </c>
       <c r="AD10" t="n">
-        <v>803146.1677730698</v>
+        <v>923904.0404576219</v>
       </c>
       <c r="AE10" t="n">
-        <v>1098900.01905535</v>
+        <v>1264126.267923704</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.589403925636756e-07</v>
+        <v>1.60014080378872e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.83203125</v>
       </c>
       <c r="AH10" t="n">
-        <v>994022.5435525702</v>
+        <v>1143479.831125425</v>
       </c>
     </row>
     <row r="11">
@@ -14788,28 +14788,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>789.7551814975023</v>
+        <v>898.5908804518283</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080.577880864499</v>
+        <v>1229.491685665972</v>
       </c>
       <c r="AC11" t="n">
-        <v>977.449044515371</v>
+        <v>1112.15072478843</v>
       </c>
       <c r="AD11" t="n">
-        <v>789755.1814975024</v>
+        <v>898590.8804518282</v>
       </c>
       <c r="AE11" t="n">
-        <v>1080577.880864499</v>
+        <v>1229491.685665973</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.643047996501115e-07</v>
+        <v>1.610134287319654e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.72135416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>977449.0445153711</v>
+        <v>1112150.72478843</v>
       </c>
     </row>
     <row r="12">
@@ -14894,28 +14894,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>776.200076669783</v>
+        <v>885.035775624109</v>
       </c>
       <c r="AB12" t="n">
-        <v>1062.031188430193</v>
+        <v>1210.944993231667</v>
       </c>
       <c r="AC12" t="n">
-        <v>960.6724223765495</v>
+        <v>1095.374102649609</v>
       </c>
       <c r="AD12" t="n">
-        <v>776200.076669783</v>
+        <v>885035.775624109</v>
       </c>
       <c r="AE12" t="n">
-        <v>1062031.188430193</v>
+        <v>1210944.993231667</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.681634082561444e-07</v>
+        <v>1.617322582491028e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.64322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>960672.4223765496</v>
+        <v>1095374.102649609</v>
       </c>
     </row>
     <row r="13">
@@ -15000,28 +15000,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>764.0366904639162</v>
+        <v>872.8723894182421</v>
       </c>
       <c r="AB13" t="n">
-        <v>1045.388706812599</v>
+        <v>1194.302511614073</v>
       </c>
       <c r="AC13" t="n">
-        <v>945.618275846669</v>
+        <v>1080.319956119728</v>
       </c>
       <c r="AD13" t="n">
-        <v>764036.6904639162</v>
+        <v>872872.389418242</v>
       </c>
       <c r="AE13" t="n">
-        <v>1045388.706812599</v>
+        <v>1194302.511614073</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.714808705332825e-07</v>
+        <v>1.623502763095685e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.578125</v>
       </c>
       <c r="AH13" t="n">
-        <v>945618.275846669</v>
+        <v>1080319.956119728</v>
       </c>
     </row>
     <row r="14">
@@ -15106,28 +15106,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>754.8825532317502</v>
+        <v>863.718252186076</v>
       </c>
       <c r="AB14" t="n">
-        <v>1032.863612399517</v>
+        <v>1181.777417200992</v>
       </c>
       <c r="AC14" t="n">
-        <v>934.2885588652913</v>
+        <v>1068.99023913835</v>
       </c>
       <c r="AD14" t="n">
-        <v>754882.5532317501</v>
+        <v>863718.252186076</v>
       </c>
       <c r="AE14" t="n">
-        <v>1032863.612399517</v>
+        <v>1181777.417200991</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.726808036973536e-07</v>
+        <v>1.62573814756971e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.55208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>934288.5588652913</v>
+        <v>1068990.23913835</v>
       </c>
     </row>
     <row r="15">
@@ -15212,28 +15212,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>753.6256493493524</v>
+        <v>862.4613483036782</v>
       </c>
       <c r="AB15" t="n">
-        <v>1031.143861056935</v>
+        <v>1180.057665858409</v>
       </c>
       <c r="AC15" t="n">
-        <v>932.7329381771588</v>
+        <v>1067.434618450218</v>
       </c>
       <c r="AD15" t="n">
-        <v>753625.6493493525</v>
+        <v>862461.3483036782</v>
       </c>
       <c r="AE15" t="n">
-        <v>1031143.861056935</v>
+        <v>1180057.665858409</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.745395236966012e-07</v>
+        <v>1.629200801951043e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>17.51302083333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>932732.9381771587</v>
+        <v>1067434.618450218</v>
       </c>
     </row>
   </sheetData>
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>951.0518607640205</v>
+        <v>1073.291927798199</v>
       </c>
       <c r="AB2" t="n">
-        <v>1301.271113344222</v>
+        <v>1468.525365911535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1177.079624632127</v>
+        <v>1328.371366077233</v>
       </c>
       <c r="AD2" t="n">
-        <v>951051.8607640205</v>
+        <v>1073291.927798199</v>
       </c>
       <c r="AE2" t="n">
-        <v>1301271.113344222</v>
+        <v>1468525.365911535</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.434547812454805e-07</v>
+        <v>1.490253142542172e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1177079.624632127</v>
+        <v>1328371.366077233</v>
       </c>
     </row>
     <row r="3">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>758.979658009164</v>
+        <v>870.0139006996623</v>
       </c>
       <c r="AB3" t="n">
-        <v>1038.469451907481</v>
+        <v>1190.39140124169</v>
       </c>
       <c r="AC3" t="n">
-        <v>939.35938491846</v>
+        <v>1076.782116632008</v>
       </c>
       <c r="AD3" t="n">
-        <v>758979.658009164</v>
+        <v>870013.9006996623</v>
       </c>
       <c r="AE3" t="n">
-        <v>1038469.451907481</v>
+        <v>1190391.40124169</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.636222018925606e-07</v>
+        <v>1.731128419382134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.18619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>939359.38491846</v>
+        <v>1076782.116632008</v>
       </c>
     </row>
     <row r="4">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>693.0003390424403</v>
+        <v>792.9994390984012</v>
       </c>
       <c r="AB4" t="n">
-        <v>948.1936368950908</v>
+        <v>1085.016817240592</v>
       </c>
       <c r="AC4" t="n">
-        <v>857.6993669879503</v>
+        <v>981.4643350338166</v>
       </c>
       <c r="AD4" t="n">
-        <v>693000.3390424403</v>
+        <v>792999.4390984012</v>
       </c>
       <c r="AE4" t="n">
-        <v>948193.6368950908</v>
+        <v>1085016.817240592</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.084463551989591e-07</v>
+        <v>1.820978316123327e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>857699.3669879503</v>
+        <v>981464.3350338166</v>
       </c>
     </row>
     <row r="5">
@@ -15827,28 +15827,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>649.7535858131859</v>
+        <v>749.8379372151672</v>
       </c>
       <c r="AB5" t="n">
-        <v>889.0215212147262</v>
+        <v>1025.961346212877</v>
       </c>
       <c r="AC5" t="n">
-        <v>804.1745549795337</v>
+        <v>928.0450352761123</v>
       </c>
       <c r="AD5" t="n">
-        <v>649753.5858131859</v>
+        <v>749837.9372151672</v>
       </c>
       <c r="AE5" t="n">
-        <v>889021.5212147263</v>
+        <v>1025961.346212877</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.302348135920752e-07</v>
+        <v>1.864653223341079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH5" t="n">
-        <v>804174.5549795337</v>
+        <v>928045.0352761124</v>
       </c>
     </row>
     <row r="6">
@@ -15933,28 +15933,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>620.5137385739739</v>
+        <v>720.5980899759552</v>
       </c>
       <c r="AB6" t="n">
-        <v>849.0142722510175</v>
+        <v>985.9540972491684</v>
       </c>
       <c r="AC6" t="n">
-        <v>767.9855417063947</v>
+        <v>891.8560220029736</v>
       </c>
       <c r="AD6" t="n">
-        <v>620513.7385739739</v>
+        <v>720598.0899759552</v>
       </c>
       <c r="AE6" t="n">
-        <v>849014.2722510175</v>
+        <v>985954.0972491684</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.461943502889018e-07</v>
+        <v>1.896644072436325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.51302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>767985.5417063946</v>
+        <v>891856.0220029736</v>
       </c>
     </row>
     <row r="7">
@@ -16039,28 +16039,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>607.4099117562185</v>
+        <v>707.3236709576078</v>
       </c>
       <c r="AB7" t="n">
-        <v>831.085038298926</v>
+        <v>967.7914515222297</v>
       </c>
       <c r="AC7" t="n">
-        <v>751.767448678853</v>
+        <v>875.4267936927806</v>
       </c>
       <c r="AD7" t="n">
-        <v>607409.9117562185</v>
+        <v>707323.6709576078</v>
       </c>
       <c r="AE7" t="n">
-        <v>831085.038298926</v>
+        <v>967791.4515222297</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.509542121107626e-07</v>
+        <v>1.90618520286824e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.42838541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>751767.448678853</v>
+        <v>875426.7936927807</v>
       </c>
     </row>
     <row r="8">
@@ -16145,28 +16145,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.3157228746473</v>
+        <v>710.2294820760366</v>
       </c>
       <c r="AB8" t="n">
-        <v>835.0608972664991</v>
+        <v>971.7673104898031</v>
       </c>
       <c r="AC8" t="n">
-        <v>755.3638572467141</v>
+        <v>879.0232022606417</v>
       </c>
       <c r="AD8" t="n">
-        <v>610315.7228746474</v>
+        <v>710229.4820760365</v>
       </c>
       <c r="AE8" t="n">
-        <v>835060.8972664991</v>
+        <v>971767.3104898031</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.508014892715584e-07</v>
+        <v>1.905879070341013e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.42838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>755363.8572467142</v>
+        <v>879023.2022606417</v>
       </c>
     </row>
   </sheetData>
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>749.6816297096475</v>
+        <v>866.6940279306683</v>
       </c>
       <c r="AB2" t="n">
-        <v>1025.747479388024</v>
+        <v>1185.849004856703</v>
       </c>
       <c r="AC2" t="n">
-        <v>927.8515796008596</v>
+        <v>1072.67324018271</v>
       </c>
       <c r="AD2" t="n">
-        <v>749681.6297096475</v>
+        <v>866694.0279306683</v>
       </c>
       <c r="AE2" t="n">
-        <v>1025747.479388024</v>
+        <v>1185849.004856703</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.386778972070141e-07</v>
+        <v>1.754566610125746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.5859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>927851.5796008597</v>
+        <v>1072673.24018271</v>
       </c>
     </row>
     <row r="3">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>620.8037216008898</v>
+        <v>716.5257113167175</v>
       </c>
       <c r="AB3" t="n">
-        <v>849.4110398215922</v>
+        <v>980.3820891069328</v>
       </c>
       <c r="AC3" t="n">
-        <v>768.3444423369007</v>
+        <v>886.8157984974705</v>
       </c>
       <c r="AD3" t="n">
-        <v>620803.7216008898</v>
+        <v>716525.7113167176</v>
       </c>
       <c r="AE3" t="n">
-        <v>849411.0398215923</v>
+        <v>980382.0891069327</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406258759228616e-07</v>
+        <v>1.967848157213523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.35286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>768344.4423369006</v>
+        <v>886815.7984974704</v>
       </c>
     </row>
     <row r="4">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.5120130483649</v>
+        <v>660.3192541102134</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.3902407651171</v>
+        <v>903.4779347031069</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.674400243005</v>
+        <v>817.2512686542871</v>
       </c>
       <c r="AD4" t="n">
-        <v>564512.0130483649</v>
+        <v>660319.2541102134</v>
       </c>
       <c r="AE4" t="n">
-        <v>772390.2407651171</v>
+        <v>903477.934703107</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.772157876596287e-07</v>
+        <v>2.044396540823701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.66276041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>698674.400243005</v>
+        <v>817251.2686542871</v>
       </c>
     </row>
     <row r="5">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.7595662799187</v>
+        <v>644.3962151411748</v>
       </c>
       <c r="AB5" t="n">
-        <v>750.8370481476246</v>
+        <v>881.6913303107675</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.1782140788301</v>
+        <v>797.5439472074611</v>
       </c>
       <c r="AD5" t="n">
-        <v>548759.5662799187</v>
+        <v>644396.2151411748</v>
       </c>
       <c r="AE5" t="n">
-        <v>750837.0481476246</v>
+        <v>881691.3303107675</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.869730974560999e-07</v>
+        <v>2.064809443119748e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.48697916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>679178.2140788301</v>
+        <v>797543.9472074611</v>
       </c>
     </row>
   </sheetData>
@@ -30726,28 +30726,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.5630823545365</v>
+        <v>723.2169343834765</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.0817865884776</v>
+        <v>989.5373157028001</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.0466125702446</v>
+        <v>895.0972631164693</v>
       </c>
       <c r="AD2" t="n">
-        <v>620563.0823545365</v>
+        <v>723216.9343834765</v>
       </c>
       <c r="AE2" t="n">
-        <v>849081.7865884776</v>
+        <v>989537.3157028002</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.150514627042677e-07</v>
+        <v>1.989189901915599e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.51171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>768046.6125702446</v>
+        <v>895097.2631164694</v>
       </c>
     </row>
     <row r="3">
@@ -30832,28 +30832,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>515.7275833208427</v>
+        <v>608.1160501468887</v>
       </c>
       <c r="AB3" t="n">
-        <v>705.6412317947776</v>
+        <v>832.0512079976678</v>
       </c>
       <c r="AC3" t="n">
-        <v>638.2958230059722</v>
+        <v>752.6414084975747</v>
       </c>
       <c r="AD3" t="n">
-        <v>515727.5833208427</v>
+        <v>608116.0501468887</v>
       </c>
       <c r="AE3" t="n">
-        <v>705641.2317947776</v>
+        <v>832051.2079976678</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.002601497742696e-06</v>
+        <v>2.179511050735052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.8125</v>
       </c>
       <c r="AH3" t="n">
-        <v>638295.8230059722</v>
+        <v>752641.4084975747</v>
       </c>
     </row>
     <row r="4">
@@ -30938,28 +30938,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.0627801858332</v>
+        <v>596.4512470118792</v>
       </c>
       <c r="AB4" t="n">
-        <v>689.6809335306632</v>
+        <v>816.0909097335534</v>
       </c>
       <c r="AC4" t="n">
-        <v>623.8587532077655</v>
+        <v>738.2043386993678</v>
       </c>
       <c r="AD4" t="n">
-        <v>504062.7801858332</v>
+        <v>596451.2470118792</v>
       </c>
       <c r="AE4" t="n">
-        <v>689680.9335306631</v>
+        <v>816090.9097335534</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.013627535990016e-06</v>
+        <v>2.203480067597652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.6171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>623858.7532077655</v>
+        <v>738204.3386993678</v>
       </c>
     </row>
   </sheetData>
@@ -31235,28 +31235,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.6569550811772</v>
+        <v>509.1830998045217</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.6661363678217</v>
+        <v>696.6867807255115</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.3436138794082</v>
+        <v>630.195972179106</v>
       </c>
       <c r="AD2" t="n">
-        <v>423656.9550811772</v>
+        <v>509183.0998045217</v>
       </c>
       <c r="AE2" t="n">
-        <v>579666.1363678216</v>
+        <v>696686.7807255115</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.045245637760985e-06</v>
+        <v>2.486144932919365e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>524343.6138794082</v>
+        <v>630195.972179106</v>
       </c>
     </row>
     <row r="3">
@@ -31341,28 +31341,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.6202396434642</v>
+        <v>513.1463843668087</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.0888771537175</v>
+        <v>702.1095215114073</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.2488158955625</v>
+        <v>635.1011741952602</v>
       </c>
       <c r="AD3" t="n">
-        <v>427620.2396434642</v>
+        <v>513146.3843668086</v>
       </c>
       <c r="AE3" t="n">
-        <v>585088.8771537174</v>
+        <v>702109.5215114072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045010129252504e-06</v>
+        <v>2.485584769581807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>529248.8158955625</v>
+        <v>635101.1741952603</v>
       </c>
     </row>
   </sheetData>
@@ -31638,28 +31638,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1167.528871229856</v>
+        <v>1305.722695497678</v>
       </c>
       <c r="AB2" t="n">
-        <v>1597.464509355254</v>
+        <v>1786.547396399733</v>
       </c>
       <c r="AC2" t="n">
-        <v>1445.004738637909</v>
+        <v>1616.041820322361</v>
       </c>
       <c r="AD2" t="n">
-        <v>1167528.871229856</v>
+        <v>1305722.695497678</v>
       </c>
       <c r="AE2" t="n">
-        <v>1597464.509355254</v>
+        <v>1786547.396399733</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.633878201733271e-07</v>
+        <v>1.287355938649224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.16015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1445004.738637909</v>
+        <v>1616041.820322361</v>
       </c>
     </row>
     <row r="3">
@@ -31744,28 +31744,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>891.6010873165814</v>
+        <v>1006.748398982096</v>
       </c>
       <c r="AB3" t="n">
-        <v>1219.927942330418</v>
+        <v>1377.477574092043</v>
       </c>
       <c r="AC3" t="n">
-        <v>1103.499731694023</v>
+        <v>1246.013047722615</v>
       </c>
       <c r="AD3" t="n">
-        <v>891601.0873165814</v>
+        <v>1006748.398982096</v>
       </c>
       <c r="AE3" t="n">
-        <v>1219927.942330418</v>
+        <v>1377477.574092043</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.995317615953748e-07</v>
+        <v>1.551553902752624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.04557291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1103499.731694023</v>
+        <v>1246013.047722615</v>
       </c>
     </row>
     <row r="4">
@@ -31850,28 +31850,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>800.0532776697014</v>
+        <v>915.2004998266656</v>
       </c>
       <c r="AB4" t="n">
-        <v>1094.66819036724</v>
+        <v>1252.217699659316</v>
       </c>
       <c r="AC4" t="n">
-        <v>990.1945946550446</v>
+        <v>1132.70779990241</v>
       </c>
       <c r="AD4" t="n">
-        <v>800053.2776697014</v>
+        <v>915200.4998266656</v>
       </c>
       <c r="AE4" t="n">
-        <v>1094668.19036724</v>
+        <v>1252217.699659316</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.499764154785171e-07</v>
+        <v>1.649445698131985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>990194.5946550446</v>
+        <v>1132707.79990241</v>
       </c>
     </row>
     <row r="5">
@@ -31956,28 +31956,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>763.4308866416771</v>
+        <v>867.0549420060387</v>
       </c>
       <c r="AB5" t="n">
-        <v>1044.559819296833</v>
+        <v>1186.34282341703</v>
       </c>
       <c r="AC5" t="n">
-        <v>944.8684961920568</v>
+        <v>1073.119929392718</v>
       </c>
       <c r="AD5" t="n">
-        <v>763430.8866416771</v>
+        <v>867054.9420060387</v>
       </c>
       <c r="AE5" t="n">
-        <v>1044559.819296833</v>
+        <v>1186342.82341703</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.762204374596929e-07</v>
+        <v>1.70037427493745e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.29427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>944868.4961920568</v>
+        <v>1073119.929392718</v>
       </c>
     </row>
     <row r="6">
@@ -32062,28 +32062,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>723.5694076235395</v>
+        <v>838.6312889259323</v>
       </c>
       <c r="AB6" t="n">
-        <v>990.0195851398764</v>
+        <v>1147.452327309755</v>
       </c>
       <c r="AC6" t="n">
-        <v>895.5335054353405</v>
+        <v>1037.941087650767</v>
       </c>
       <c r="AD6" t="n">
-        <v>723569.4076235396</v>
+        <v>838631.2889259323</v>
       </c>
       <c r="AE6" t="n">
-        <v>990019.5851398765</v>
+        <v>1147452.327309755</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.943401374391915e-07</v>
+        <v>1.735536969617397e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.92317708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>895533.5054353406</v>
+        <v>1037941.087650767</v>
       </c>
     </row>
     <row r="7">
@@ -32168,28 +32168,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>702.0061570815888</v>
+        <v>805.715463791971</v>
       </c>
       <c r="AB7" t="n">
-        <v>960.5157944449052</v>
+        <v>1102.415443217751</v>
       </c>
       <c r="AC7" t="n">
-        <v>868.845515115467</v>
+        <v>997.2024605668406</v>
       </c>
       <c r="AD7" t="n">
-        <v>702006.1570815888</v>
+        <v>805715.4637919711</v>
       </c>
       <c r="AE7" t="n">
-        <v>960515.7944449051</v>
+        <v>1102415.443217751</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.047294219383064e-07</v>
+        <v>1.75569818857791e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.71484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>868845.515115467</v>
+        <v>997202.4605668406</v>
       </c>
     </row>
     <row r="8">
@@ -32274,28 +32274,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>680.9080745276244</v>
+        <v>784.6173812380065</v>
       </c>
       <c r="AB8" t="n">
-        <v>931.64846711286</v>
+        <v>1073.548115885706</v>
       </c>
       <c r="AC8" t="n">
-        <v>842.7332449884439</v>
+        <v>971.0901904398175</v>
       </c>
       <c r="AD8" t="n">
-        <v>680908.0745276244</v>
+        <v>784617.3812380065</v>
       </c>
       <c r="AE8" t="n">
-        <v>931648.4671128599</v>
+        <v>1073548.115885706</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.137646527704745e-07</v>
+        <v>1.773231760517502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>842733.2449884439</v>
+        <v>971090.1904398175</v>
       </c>
     </row>
     <row r="9">
@@ -32380,28 +32380,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>666.8926881618924</v>
+        <v>770.4314026716825</v>
       </c>
       <c r="AB9" t="n">
-        <v>912.4719971720576</v>
+        <v>1054.138234170057</v>
       </c>
       <c r="AC9" t="n">
-        <v>825.3869504244471</v>
+        <v>953.5327605931697</v>
       </c>
       <c r="AD9" t="n">
-        <v>666892.6881618924</v>
+        <v>770431.4026716824</v>
       </c>
       <c r="AE9" t="n">
-        <v>912471.9971720576</v>
+        <v>1054138.234170057</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.178021946137325e-07</v>
+        <v>1.781066926179881e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.4609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>825386.9504244472</v>
+        <v>953532.7605931696</v>
       </c>
     </row>
     <row r="10">
@@ -32486,28 +32486,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>664.1293633483194</v>
+        <v>767.6680778581094</v>
       </c>
       <c r="AB10" t="n">
-        <v>908.6910942528401</v>
+        <v>1050.357331250839</v>
       </c>
       <c r="AC10" t="n">
-        <v>821.9668915733091</v>
+        <v>950.1127017420317</v>
       </c>
       <c r="AD10" t="n">
-        <v>664129.3633483194</v>
+        <v>767668.0778581094</v>
       </c>
       <c r="AE10" t="n">
-        <v>908691.0942528402</v>
+        <v>1050357.331250839</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.192547249110022e-07</v>
+        <v>1.783885674802323e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.43489583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>821966.8915733091</v>
+        <v>950112.7017420317</v>
       </c>
     </row>
   </sheetData>
@@ -32783,28 +32783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1479.684422711084</v>
+        <v>1647.414711714255</v>
       </c>
       <c r="AB2" t="n">
-        <v>2024.569506222869</v>
+        <v>2254.065487375111</v>
       </c>
       <c r="AC2" t="n">
-        <v>1831.347434050106</v>
+        <v>2038.94064086081</v>
       </c>
       <c r="AD2" t="n">
-        <v>1479684.422711084</v>
+        <v>1647414.711714254</v>
       </c>
       <c r="AE2" t="n">
-        <v>2024569.506222869</v>
+        <v>2254065.487375111</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.744007344064053e-07</v>
+        <v>1.077801074512391e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.88802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1831347.434050106</v>
+        <v>2038940.64086081</v>
       </c>
     </row>
     <row r="3">
@@ -32889,28 +32889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1068.563487555046</v>
+        <v>1200.248033099823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1462.055705366791</v>
+        <v>1642.23231009329</v>
       </c>
       <c r="AC3" t="n">
-        <v>1322.519160854654</v>
+        <v>1485.499963305509</v>
       </c>
       <c r="AD3" t="n">
-        <v>1068563.487555046</v>
+        <v>1200248.033099823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1462055.705366791</v>
+        <v>1642232.31009329</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.262568016844246e-07</v>
+        <v>1.362742619116464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.26953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1322519.160854654</v>
+        <v>1485499.963305509</v>
       </c>
     </row>
     <row r="4">
@@ -32995,28 +32995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>951.7456595371182</v>
+        <v>1071.613966578363</v>
       </c>
       <c r="AB4" t="n">
-        <v>1302.220399433816</v>
+        <v>1466.22950534413</v>
       </c>
       <c r="AC4" t="n">
-        <v>1177.938312189662</v>
+        <v>1326.294619220121</v>
       </c>
       <c r="AD4" t="n">
-        <v>951745.6595371182</v>
+        <v>1071613.966578363</v>
       </c>
       <c r="AE4" t="n">
-        <v>1302220.399433816</v>
+        <v>1466229.50534413</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.836921303643316e-07</v>
+        <v>1.470513823535533e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.70703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1177938.312189662</v>
+        <v>1326294.619220121</v>
       </c>
     </row>
     <row r="5">
@@ -33101,28 +33101,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>891.0001186097768</v>
+        <v>1010.78308479645</v>
       </c>
       <c r="AB5" t="n">
-        <v>1219.1056704329</v>
+        <v>1382.998009221016</v>
       </c>
       <c r="AC5" t="n">
-        <v>1102.755936272338</v>
+        <v>1251.006620270859</v>
       </c>
       <c r="AD5" t="n">
-        <v>891000.1186097768</v>
+        <v>1010783.08479645</v>
       </c>
       <c r="AE5" t="n">
-        <v>1219105.6704329</v>
+        <v>1382998.009221016</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.155294748866097e-07</v>
+        <v>1.530253169396909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.93880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1102755.936272338</v>
+        <v>1251006.620270859</v>
       </c>
     </row>
     <row r="6">
@@ -33207,28 +33207,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>862.2370519482619</v>
+        <v>982.0200181349351</v>
       </c>
       <c r="AB6" t="n">
-        <v>1179.750773689672</v>
+        <v>1343.643112477788</v>
       </c>
       <c r="AC6" t="n">
-        <v>1067.157015639339</v>
+        <v>1215.40769963786</v>
       </c>
       <c r="AD6" t="n">
-        <v>862237.0519482619</v>
+        <v>982020.0181349351</v>
       </c>
       <c r="AE6" t="n">
-        <v>1179750.773689672</v>
+        <v>1343643.112477788</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.340103179438782e-07</v>
+        <v>1.564930479699451e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.52213541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1067157.015639339</v>
+        <v>1215407.69963786</v>
       </c>
     </row>
     <row r="7">
@@ -33313,28 +33313,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>837.8659888434757</v>
+        <v>945.6622138345754</v>
       </c>
       <c r="AB7" t="n">
-        <v>1146.405209974281</v>
+        <v>1293.896760640914</v>
       </c>
       <c r="AC7" t="n">
-        <v>1036.993905724152</v>
+        <v>1170.409069800854</v>
       </c>
       <c r="AD7" t="n">
-        <v>837865.9888434757</v>
+        <v>945662.2138345754</v>
       </c>
       <c r="AE7" t="n">
-        <v>1146405.209974281</v>
+        <v>1293896.760640914</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.481734287335951e-07</v>
+        <v>1.591506030727202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.20963541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1036993.905724152</v>
+        <v>1170409.069800854</v>
       </c>
     </row>
     <row r="8">
@@ -33419,28 +33419,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>806.3105044820696</v>
+        <v>926.0081298141711</v>
       </c>
       <c r="AB8" t="n">
-        <v>1103.229604141286</v>
+        <v>1267.005175807205</v>
       </c>
       <c r="AC8" t="n">
-        <v>997.9389191145158</v>
+        <v>1146.083980081098</v>
       </c>
       <c r="AD8" t="n">
-        <v>806310.5044820696</v>
+        <v>926008.1298141711</v>
       </c>
       <c r="AE8" t="n">
-        <v>1103229.604141287</v>
+        <v>1267005.175807205</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.584221119181138e-07</v>
+        <v>1.610736580214619e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>997938.9191145158</v>
+        <v>1146083.980081098</v>
       </c>
     </row>
     <row r="9">
@@ -33525,28 +33525,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>789.5656592571515</v>
+        <v>909.2632845892529</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080.318568174119</v>
+        <v>1244.094139840038</v>
       </c>
       <c r="AC9" t="n">
-        <v>977.214480264214</v>
+        <v>1125.359541230796</v>
       </c>
       <c r="AD9" t="n">
-        <v>789565.6592571515</v>
+        <v>909263.2845892529</v>
       </c>
       <c r="AE9" t="n">
-        <v>1080318.568174119</v>
+        <v>1244094.139840038</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.652071197671237e-07</v>
+        <v>1.623467916217863e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>18</v>
+        <v>17.8515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>977214.480264214</v>
+        <v>1125359.541230796</v>
       </c>
     </row>
     <row r="10">
@@ -33631,28 +33631,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>773.4064277081542</v>
+        <v>881.2879040452744</v>
       </c>
       <c r="AB10" t="n">
-        <v>1058.208794673799</v>
+        <v>1205.816989993082</v>
       </c>
       <c r="AC10" t="n">
-        <v>957.2148325155023</v>
+        <v>1090.735508842916</v>
       </c>
       <c r="AD10" t="n">
-        <v>773406.4277081542</v>
+        <v>881287.9040452745</v>
       </c>
       <c r="AE10" t="n">
-        <v>1058208.794673799</v>
+        <v>1205816.989993081</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.703789089667189e-07</v>
+        <v>1.633172221283273e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>957214.8325155022</v>
+        <v>1090735.508842916</v>
       </c>
     </row>
     <row r="11">
@@ -33737,28 +33737,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>760.5342483865523</v>
+        <v>868.4157247236725</v>
       </c>
       <c r="AB11" t="n">
-        <v>1040.596511045511</v>
+        <v>1188.204706364793</v>
       </c>
       <c r="AC11" t="n">
-        <v>941.2834405177023</v>
+        <v>1074.804116845116</v>
       </c>
       <c r="AD11" t="n">
-        <v>760534.2483865523</v>
+        <v>868415.7247236725</v>
       </c>
       <c r="AE11" t="n">
-        <v>1040596.511045511</v>
+        <v>1188204.706364793</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.759302790250001e-07</v>
+        <v>1.643588768922291e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>941283.4405177023</v>
+        <v>1074804.116845116</v>
       </c>
     </row>
     <row r="12">
@@ -33843,28 +33843,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>742.9431858991768</v>
+        <v>850.8246622362968</v>
       </c>
       <c r="AB12" t="n">
-        <v>1016.527643287378</v>
+        <v>1164.135838606661</v>
       </c>
       <c r="AC12" t="n">
-        <v>919.511671717538</v>
+        <v>1053.032348044952</v>
       </c>
       <c r="AD12" t="n">
-        <v>742943.1858991768</v>
+        <v>850824.6622362968</v>
       </c>
       <c r="AE12" t="n">
-        <v>1016527.643287378</v>
+        <v>1164135.838606661</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.792516115385013e-07</v>
+        <v>1.649820891441361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>17.56510416666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>919511.671717538</v>
+        <v>1053032.348044951</v>
       </c>
     </row>
     <row r="13">
@@ -33949,28 +33949,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>734.2778950679244</v>
+        <v>842.1593714050446</v>
       </c>
       <c r="AB13" t="n">
-        <v>1004.671410086408</v>
+        <v>1152.27960540569</v>
       </c>
       <c r="AC13" t="n">
-        <v>908.7869807729403</v>
+        <v>1042.307657100354</v>
       </c>
       <c r="AD13" t="n">
-        <v>734277.8950679244</v>
+        <v>842159.3714050446</v>
       </c>
       <c r="AE13" t="n">
-        <v>1004671.410086408</v>
+        <v>1152279.60540569</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.823831536226598e-07</v>
+        <v>1.655696892673628e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>17.50651041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>908786.9807729403</v>
+        <v>1042307.657100354</v>
       </c>
     </row>
     <row r="14">
@@ -34055,28 +34055,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>734.9794444206294</v>
+        <v>842.8609207577496</v>
       </c>
       <c r="AB14" t="n">
-        <v>1005.631300860952</v>
+        <v>1153.239496180234</v>
       </c>
       <c r="AC14" t="n">
-        <v>909.655260919177</v>
+        <v>1043.175937246591</v>
       </c>
       <c r="AD14" t="n">
-        <v>734979.4444206294</v>
+        <v>842860.9207577496</v>
       </c>
       <c r="AE14" t="n">
-        <v>1005631.300860952</v>
+        <v>1153239.496180234</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.82359429818992e-07</v>
+        <v>1.655652377512777e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>17.50651041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>909655.260919177</v>
+        <v>1043175.937246591</v>
       </c>
     </row>
   </sheetData>
@@ -34352,28 +34352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.0233488220516</v>
+        <v>481.4546862537932</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.6471524740999</v>
+        <v>658.7475420141344</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.7166172204535</v>
+        <v>595.8776011622867</v>
       </c>
       <c r="AD2" t="n">
-        <v>390023.3488220515</v>
+        <v>481454.6862537932</v>
       </c>
       <c r="AE2" t="n">
-        <v>533647.1524740999</v>
+        <v>658747.5420141345</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.032056077192927e-06</v>
+        <v>2.581093926807158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.23177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>482716.6172204536</v>
+        <v>595877.6011622867</v>
       </c>
     </row>
   </sheetData>
@@ -34649,28 +34649,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>819.8983825339197</v>
+        <v>938.6812070510997</v>
       </c>
       <c r="AB2" t="n">
-        <v>1121.821138346701</v>
+        <v>1284.34503917948</v>
       </c>
       <c r="AC2" t="n">
-        <v>1014.756103388747</v>
+        <v>1161.768951229773</v>
       </c>
       <c r="AD2" t="n">
-        <v>819898.3825339198</v>
+        <v>938681.2070510997</v>
       </c>
       <c r="AE2" t="n">
-        <v>1121821.1383467</v>
+        <v>1284345.03917948</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.045843739333192e-07</v>
+        <v>1.65686729190205e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.13932291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1014756.103388747</v>
+        <v>1161768.951229773</v>
       </c>
     </row>
     <row r="3">
@@ -34755,28 +34755,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>663.835344948688</v>
+        <v>771.8894738375456</v>
       </c>
       <c r="AB3" t="n">
-        <v>908.2888053072879</v>
+        <v>1056.133231464751</v>
       </c>
       <c r="AC3" t="n">
-        <v>821.6029965201044</v>
+        <v>955.337358146054</v>
       </c>
       <c r="AD3" t="n">
-        <v>663835.3449486879</v>
+        <v>771889.4738375456</v>
       </c>
       <c r="AE3" t="n">
-        <v>908288.805307288</v>
+        <v>1056133.231464751</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.13799243162431e-07</v>
+        <v>1.881771665486208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.61328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>821602.9965201044</v>
+        <v>955337.3581460541</v>
       </c>
     </row>
     <row r="4">
@@ -34861,28 +34861,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>606.8746334864268</v>
+        <v>714.8434215207128</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.3526469553863</v>
+        <v>978.0803059906513</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.1049557372229</v>
+        <v>884.7336943312339</v>
       </c>
       <c r="AD4" t="n">
-        <v>606874.6334864268</v>
+        <v>714843.4215207128</v>
       </c>
       <c r="AE4" t="n">
-        <v>830352.6469553863</v>
+        <v>978080.3059906512</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.518676796377458e-07</v>
+        <v>1.960165366996284e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.87109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>751104.9557372229</v>
+        <v>884733.6943312339</v>
       </c>
     </row>
     <row r="5">
@@ -34967,28 +34967,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>574.6240428137212</v>
+        <v>671.9495655828074</v>
       </c>
       <c r="AB5" t="n">
-        <v>786.2259660013459</v>
+        <v>919.39103995304</v>
       </c>
       <c r="AC5" t="n">
-        <v>711.1896632812505</v>
+        <v>831.6456494733503</v>
       </c>
       <c r="AD5" t="n">
-        <v>574624.0428137212</v>
+        <v>671949.5655828074</v>
       </c>
       <c r="AE5" t="n">
-        <v>786225.9660013459</v>
+        <v>919391.0399530401</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.716204167519108e-07</v>
+        <v>2.00084185178806e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.50651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>711189.6632812505</v>
+        <v>831645.6494733503</v>
       </c>
     </row>
     <row r="6">
@@ -35073,28 +35073,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>571.3265975569402</v>
+        <v>668.4815281254342</v>
       </c>
       <c r="AB6" t="n">
-        <v>781.7142559280003</v>
+        <v>914.6459181048476</v>
       </c>
       <c r="AC6" t="n">
-        <v>707.1085444850801</v>
+        <v>827.3533953945289</v>
       </c>
       <c r="AD6" t="n">
-        <v>571326.5975569402</v>
+        <v>668481.5281254342</v>
       </c>
       <c r="AE6" t="n">
-        <v>781714.2559280003</v>
+        <v>914645.9181048477</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.730574545049253e-07</v>
+        <v>2.003801119861536e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.48046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>707108.5444850801</v>
+        <v>827353.3953945289</v>
       </c>
     </row>
   </sheetData>
@@ -35370,28 +35370,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1012.599554484887</v>
+        <v>1147.649901575598</v>
       </c>
       <c r="AB2" t="n">
-        <v>1385.483383185723</v>
+        <v>1570.265226076053</v>
       </c>
       <c r="AC2" t="n">
-        <v>1253.254793632618</v>
+        <v>1420.40131678044</v>
       </c>
       <c r="AD2" t="n">
-        <v>1012599.554484887</v>
+        <v>1147649.901575598</v>
       </c>
       <c r="AE2" t="n">
-        <v>1385483.383185723</v>
+        <v>1570265.226076053</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.16054845024756e-07</v>
+        <v>1.418636482128161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1253254.793632618</v>
+        <v>1420401.31678044</v>
       </c>
     </row>
     <row r="3">
@@ -35476,28 +35476,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.3678104301638</v>
+        <v>911.8102915173071</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.730303849424</v>
+        <v>1247.579067085017</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.3462187101571</v>
+        <v>1128.51187191064</v>
       </c>
       <c r="AD3" t="n">
-        <v>799367.8104301638</v>
+        <v>911810.2915173071</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093730.303849424</v>
+        <v>1247579.067085017</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.413298539207086e-07</v>
+        <v>1.666829339356275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.46614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>989346.2187101571</v>
+        <v>1128511.87191064</v>
       </c>
     </row>
     <row r="4">
@@ -35582,28 +35582,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>729.504279368052</v>
+        <v>830.7707939809935</v>
       </c>
       <c r="AB4" t="n">
-        <v>998.1399384887808</v>
+        <v>1136.697251345527</v>
       </c>
       <c r="AC4" t="n">
-        <v>902.878863657613</v>
+        <v>1028.212461041721</v>
       </c>
       <c r="AD4" t="n">
-        <v>729504.279368052</v>
+        <v>830770.7939809936</v>
       </c>
       <c r="AE4" t="n">
-        <v>998139.9384887808</v>
+        <v>1136697.251345527</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.879432257046843e-07</v>
+        <v>1.759179010931313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.44401041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>902878.8636576131</v>
+        <v>1028212.461041721</v>
       </c>
     </row>
     <row r="5">
@@ -35688,28 +35688,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>684.1362752157056</v>
+        <v>796.578666794298</v>
       </c>
       <c r="AB5" t="n">
-        <v>936.0654337124558</v>
+        <v>1089.9140744785</v>
       </c>
       <c r="AC5" t="n">
-        <v>846.7286624950257</v>
+        <v>985.8942049142821</v>
       </c>
       <c r="AD5" t="n">
-        <v>684136.2752157056</v>
+        <v>796578.666794298</v>
       </c>
       <c r="AE5" t="n">
-        <v>936065.4337124558</v>
+        <v>1089914.0744785</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.114134231544683e-07</v>
+        <v>1.805677793219231e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.96875</v>
       </c>
       <c r="AH5" t="n">
-        <v>846728.6624950257</v>
+        <v>985894.2049142821</v>
       </c>
     </row>
     <row r="6">
@@ -35794,28 +35794,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>657.0989724053796</v>
+        <v>758.4507383643416</v>
       </c>
       <c r="AB6" t="n">
-        <v>899.0718032057516</v>
+        <v>1037.745760715147</v>
       </c>
       <c r="AC6" t="n">
-        <v>813.2656521629948</v>
+        <v>938.7047617978154</v>
       </c>
       <c r="AD6" t="n">
-        <v>657098.9724053796</v>
+        <v>758450.7383643417</v>
       </c>
       <c r="AE6" t="n">
-        <v>899071.8032057516</v>
+        <v>1037745.760715147</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.267835095872849e-07</v>
+        <v>1.836128764256657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.66927083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>813265.6521629948</v>
+        <v>938704.7617978154</v>
       </c>
     </row>
     <row r="7">
@@ -35900,28 +35900,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>636.3807698847226</v>
+        <v>737.7325358436844</v>
       </c>
       <c r="AB7" t="n">
-        <v>870.7242444944018</v>
+        <v>1009.398202003797</v>
       </c>
       <c r="AC7" t="n">
-        <v>787.6235446690076</v>
+        <v>913.0626543038284</v>
       </c>
       <c r="AD7" t="n">
-        <v>636380.7698847225</v>
+        <v>737732.5358436845</v>
       </c>
       <c r="AE7" t="n">
-        <v>870724.2444944017</v>
+        <v>1009398.202003797</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.355879780839883e-07</v>
+        <v>1.853572037355018e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.50651041666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>787623.5446690076</v>
+        <v>913062.6543038284</v>
       </c>
     </row>
     <row r="8">
@@ -36006,28 +36006,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>627.4926855340165</v>
+        <v>728.6738592923863</v>
       </c>
       <c r="AB8" t="n">
-        <v>858.5631753711583</v>
+        <v>997.0037211057069</v>
       </c>
       <c r="AC8" t="n">
-        <v>776.6231109147188</v>
+        <v>901.8510852668884</v>
       </c>
       <c r="AD8" t="n">
-        <v>627492.6855340165</v>
+        <v>728673.8592923863</v>
       </c>
       <c r="AE8" t="n">
-        <v>858563.1753711583</v>
+        <v>997003.7211057069</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.398392785866823e-07</v>
+        <v>1.861994646365369e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.42838541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>776623.1109147188</v>
+        <v>901851.0852668884</v>
       </c>
     </row>
   </sheetData>
